--- a/recommendApi/media/jobDbData1.xlsx
+++ b/recommendApi/media/jobDbData1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,12 +736,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>639134d66f6f2bd65dcbd8be</t>
+          <t>639145020f9362b03ae3d0b8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ứng_viên vui_lòng gửi cv tiếng tiếng việt process nhanh_chóng sinh_viên ngành khoa_học máy_tính phần_mềm trường cao_đẳng đại_học có_thể tham_gia thực_tập công_ty tương_đương hiểu_biết tìm_hiểu lập_trình website ngôn_ngữ php mảng back end phát_triển web php php mysql php famework chúng_tôi framework tùy yêu_cầu khách_hàng codeigniter cakephp zend javascript js frameworks jquery angularjs vuejs db mysql thiết_kế database giao_tiếp chủ_động công_việc đam_mê phát_triển phần_mềm kỹ_năng làm_việc hòa tư_duy logic tạođiều bắt_buộc sinh_viên thực_tập công_ty trở_thành nhân_viên chính_thức kết_thúc thời_gian thực_tập công_ty đánh_giá sinh_viên năng_lực sinh_viên trở_thành nhân_viên chính_thức có_thể chính_thức tốt_nghiệp đào_tạo phát_triển hệ_thống web thực_tế phát_triển phần_mềm ngôn_ngữ php kỹ_thuật nắm_bắt nghiệp_vụ phân_tích phát_triển hệ_thống web kỹ_sư việt_nam nhật thực_hiện công_việc liên_quan yêu_cầu tythực php</t>
+          <t>kinh_nghiệm làm_việc reactjs kinh_nghiệm web services giỏi lập_trình chức_năng mẫu thiết_kế làm_việc html css javascript json tiếng đọc chú_trọng chi_tiết tư_duy phục_vụ khách_hàng chủ_động tích_cực khả_năng làm_việc độc_lập vàtrong kiến_thức lĩnh_vực giáo_dục cộng thực_hiện phương_pháp scrum agile phát_triển ứng_dụng web bao_gồm trang_web tương táchệ thống quản_lý khách_hàng chính_phủ việt nam làm_việc reactjs reduxsaga html css javascript môi_trường máy_chủ firebase nodejs vps có_thể tùy_chọn chỉ_định làm_việc ứng_dụng thiết_bị di_độngdự án quan_tâm react native làm_việc laptop nhânfrontend developer reactjs</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>639145020f9362b03ae3d0b8</t>
+          <t>639145e90f9362b03ae3d0be</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>kinh_nghiệm làm_việc reactjs kinh_nghiệm web services giỏi lập_trình chức_năng mẫu thiết_kế làm_việc html css javascript json tiếng đọc chú_trọng chi_tiết tư_duy phục_vụ khách_hàng chủ_động tích_cực khả_năng làm_việc độc_lập vàtrong kiến_thức lĩnh_vực giáo_dục cộng thực_hiện phương_pháp scrum agile phát_triển ứng_dụng web bao_gồm trang_web tương táchệ thống quản_lý khách_hàng chính_phủ việt nam làm_việc reactjs reduxsaga html css javascript môi_trường máy_chủ firebase nodejs vps có_thể tùy_chọn chỉ_định làm_việc ứng_dụng thiết_bị di_độngdự án quan_tâm react native làm_việc laptop nhânfrontend developer reactjs</t>
+          <t>kinh_nghiệm phát_triển ứng_dụng web ít_nhất kinh_nghiệm reactjs nextjs cam_kết chất_lượng tiếp_cận công_việc kỹ_lưỡng làm_việc tin_cậy năng_động nhiệt_tình khả_năng quản_lý điều_phối dự_án lương thoải_mái kiến thức đam_mê công_nghệ mong_muốn nâng năng_lực xem_xét yêu_cầu nghiệp_vụ làm_việc thành_viên thực_hiện phân_tích yêu_cầu kỹ_thuật viết mã rõ_ràng sạch_sẽ khả_năng kiểm_soát lỗi phối_hợp bộ_phận lỗi có_thể khắc_phục nhanh_chóng đóng_góp_ý_kiến ứng_dụng sử_dụng phát_triển bảo_trì ứng_dụng reactjs nextjs html js css đảm_bảo thời_gian chất_lượng sản phẩmjunior reactjs</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>639145e90f9362b03ae3d0be</t>
+          <t>639147560f9362b03ae3d0ca</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>kinh_nghiệm phát_triển ứng_dụng web ít_nhất kinh_nghiệm reactjs nextjs cam_kết chất_lượng tiếp_cận công_việc kỹ_lưỡng làm_việc tin_cậy năng_động nhiệt_tình khả_năng quản_lý điều_phối dự_án lương thoải_mái kiến thức đam_mê công_nghệ mong_muốn nâng năng_lực xem_xét yêu_cầu nghiệp_vụ làm_việc thành_viên thực_hiện phân_tích yêu_cầu kỹ_thuật viết mã rõ_ràng sạch_sẽ khả_năng kiểm_soát lỗi phối_hợp bộ_phận lỗi có_thể khắc_phục nhanh_chóng đóng_góp_ý_kiến ứng_dụng sử_dụng phát_triển bảo_trì ứng_dụng reactjs nextjs html js css đảm_bảo thời_gian chất_lượng sản phẩmjunior reactjs</t>
+          <t>ít_nhất phát_triển ứng_dụng nền_tảng android thành_thạo java kotlin kinh_nghiệm mẫu kiến_trúc ứng_dụng mvcmvpmvvm kinh_nghiệm kết_nối api google maps gcmfcm kinh_nghiệm thiết_kế ux ui application kiến_thức thiết_kế oop kiến_thức mẫu thiết_kế lợi_thế khả_năng làm_việc độc_lập nhómhợp tác chặt_chẽ bộ_phận liên_quan phát_triển ứng_dụng payoo nền_tảng android hỗ_trợ đối_tác tích_hợp sdk dự_án thúc_đẩy tính_năng cần_thiết phát_triển sản_phẩm phát_triển ý_tưởng ứng_dụng payoo tái kiến_trúc ứng_dụng payoo nền_tảng android duy_trì cải_thiện hiệu_suất sửa lỗi ứng_dụng tham_gia thảo_luận thết kế ứng_dụng phát_triển codeunitintergrationui tài_liệu thực_hiện dự_án thảo_luận quản_lý trực_tiếp ban giám đốcandroid developer</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>639147560f9362b03ae3d0ca</t>
+          <t>639147bc0f9362b03ae3d0d4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ít_nhất phát_triển ứng_dụng nền_tảng android thành_thạo java kotlin kinh_nghiệm mẫu kiến_trúc ứng_dụng mvcmvpmvvm kinh_nghiệm kết_nối api google maps gcmfcm kinh_nghiệm thiết_kế ux ui application kiến_thức thiết_kế oop kiến_thức mẫu thiết_kế lợi_thế khả_năng làm_việc độc_lập nhómhợp tác chặt_chẽ bộ_phận liên_quan phát_triển ứng_dụng payoo nền_tảng android hỗ_trợ đối_tác tích_hợp sdk dự_án thúc_đẩy tính_năng cần_thiết phát_triển sản_phẩm phát_triển ý_tưởng ứng_dụng payoo tái kiến_trúc ứng_dụng payoo nền_tảng android duy_trì cải_thiện hiệu_suất sửa lỗi ứng_dụng tham_gia thảo_luận thết kế ứng_dụng phát_triển codeunitintergrationui tài_liệu thực_hiện dự_án thảo_luận quản_lý trực_tiếp ban giám đốcandroid developer</t>
+          <t>kinh_nghiệm phát_triển ứng_dụng di_động ngôn_ngữ swift object c ios java android flutter lợi_thế hiểu_biết kỹ_năng cơ_bản lập_trình hướng đối_tượng sử_dụng tool quản_lý source git svn khả_năng tự_quản_lý trách_nhiệm có_thể giao_tiếp làm_việc tham_gia phát_triển ứng_dụng mobile ios android hằng native react native flutter tập_trung hiệu_suất chất_lượng ứng_dụng hoàn_thiện trải nghiệm ux xây_dựng tối_ưu_hóa thông_số kỹ_thuật tiêu_chuẩn quá_trình phát_triển cải_thiện quy_trình phát_triển nghiên_cứu phân_tích giải_pháp kỹ_thuật đánh_giá giới_thiệu thúc_đẩy công_nghệ giải_quyết vấn_đề kỹ_thuật thực_hiện cụ_thể tham_gia xây_dựng nền_tảng có_thể đảm_trách vị_trí head of mobile team kỹ_năng kinh nghiệmlập viên mobile ios android</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>639147bc0f9362b03ae3d0d4</t>
+          <t>639148520f9362b03ae3d0de</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>kinh_nghiệm phát_triển ứng_dụng di_động ngôn_ngữ swift object c ios java android flutter lợi_thế hiểu_biết kỹ_năng cơ_bản lập_trình hướng đối_tượng sử_dụng tool quản_lý source git svn khả_năng tự_quản_lý trách_nhiệm có_thể giao_tiếp làm_việc tham_gia phát_triển ứng_dụng mobile ios android hằng native react native flutter tập_trung hiệu_suất chất_lượng ứng_dụng hoàn_thiện trải nghiệm ux xây_dựng tối_ưu_hóa thông_số kỹ_thuật tiêu_chuẩn quá_trình phát_triển cải_thiện quy_trình phát_triển nghiên_cứu phân_tích giải_pháp kỹ_thuật đánh_giá giới_thiệu thúc_đẩy công_nghệ giải_quyết vấn_đề kỹ_thuật thực_hiện cụ_thể tham_gia xây_dựng nền_tảng có_thể đảm_trách vị_trí head of mobile team kỹ_năng kinh nghiệmlập viên mobile ios android</t>
+          <t>ít_nhất kinh_nghiệm phát_triển ios chuyên_nghiệp sử_dụng thành_thạo objectivec swift ios sdk rest api kinh_nghiệm ios framework core data core animation vv kinh_nghiệm lưu_trữ ngoại_tuyến phân_luồng điều_chỉnh hiệu_suất quen_thuộc api restful kết_nối ứng_dụng ios dịch_vụ backend kiến_thức công_nghệ web tiêu_chuẩn uiux hiểu_biết nguyên_tắc thiết_kế hướng_dẫn giao_diện apple kiến_thức phát_triển agilescrumkiểm định_hướng kiến_thức phát_triển backend kỹ_năng giao_tiếp tiếng thiết_kế xây_dựng ứng_dụng cao_cấp nền_tảng ios tương_tác khách_hàng cộng_tác đa chức_năng xác_định thiết_kế cung_cấp tính_năng wireframes thiết_kế phát_triển thử_nghiệm triển_khai ứng_dụng ios tiếp_tục sản_xuất phiên_bản ứng_dụng thiết_kế giải_pháp một_cách độc_lập mã kiểm_tra đơn_vị độ bền bao_gồm trường_hợp khả_năng sử_dụng độ tin_cậy làm_việc sửa lỗi cải_thiện hiệu_suất ứng_dụng hoạt_động hiệu_quả môi_trường lập_trình nhịp_độ thời_hạn hợp_tác lặp_đi lặp_lạimiddle ios developer</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>639148520f9362b03ae3d0de</t>
+          <t>63914f332e7bf4e4662d6375</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ít_nhất kinh_nghiệm phát_triển ios chuyên_nghiệp sử_dụng thành_thạo objectivec swift ios sdk rest api kinh_nghiệm ios framework core data core animation vv kinh_nghiệm lưu_trữ ngoại_tuyến phân_luồng điều_chỉnh hiệu_suất quen_thuộc api restful kết_nối ứng_dụng ios dịch_vụ backend kiến_thức công_nghệ web tiêu_chuẩn uiux hiểu_biết nguyên_tắc thiết_kế hướng_dẫn giao_diện apple kiến_thức phát_triển agilescrumkiểm định_hướng kiến_thức phát_triển backend kỹ_năng giao_tiếp tiếng thiết_kế xây_dựng ứng_dụng cao_cấp nền_tảng ios tương_tác khách_hàng cộng_tác đa chức_năng xác_định thiết_kế cung_cấp tính_năng wireframes thiết_kế phát_triển thử_nghiệm triển_khai ứng_dụng ios tiếp_tục sản_xuất phiên_bản ứng_dụng thiết_kế giải_pháp một_cách độc_lập mã kiểm_tra đơn_vị độ bền bao_gồm trường_hợp khả_năng sử_dụng độ tin_cậy làm_việc sửa lỗi cải_thiện hiệu_suất ứng_dụng hoạt_động hiệu_quả môi_trường lập_trình nhịp_độ thời_hạn hợp_tác lặp_đi lặp_lạimiddle ios developer</t>
+          <t>chăm_sóc giúp sinh_viên thay_đổi đường sự_nghiệp họkĩ năng giao_tiếp nói_chuyện sinh_viên hàng đánh_giá có_thể truyền_cảm_hứng hành_trình mớitính kiên_nhẫn học có_thể mới_mẻ đối_với họcó kinh_nghiệm làm_việc dữ_liệu ds ưu tiêncó kinh_nghiệm sqlbigquery python pandas seaborn matplotlibquen công_cụ trực_quan_hóa dữ_liệu tableau ưu_tiên powerbi google data studioquen học máy truyền_thống hồi tuyến tínhlogistic knn kmeans địnhai engineer</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>63914f332e7bf4e4662d6375</t>
+          <t>63914fb52e7bf4e4662d637f</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>chăm_sóc giúp sinh_viên thay_đổi đường sự_nghiệp họkĩ năng giao_tiếp nói_chuyện sinh_viên hàng đánh_giá có_thể truyền_cảm_hứng hành_trình mớitính kiên_nhẫn học có_thể mới_mẻ đối_với họcó kinh_nghiệm làm_việc dữ_liệu ds ưu tiêncó kinh_nghiệm sqlbigquery python pandas seaborn matplotlibquen công_cụ trực_quan_hóa dữ_liệu tableau ưu_tiên powerbi google data studioquen học máy truyền_thống hồi tuyến tínhlogistic knn kmeans địnhai engineer</t>
+          <t>ít_nhất kinh_nghiệm lĩnh_vực machine learning deep learning tham_gia ít_nhất project triển_khai thành_công sử_dụng sử_dụng thành_thạo ngôn_ngữ python go cc thành_thạo ít_nhất framework tensorflow keras pytorch sử_dụng thư_viện matplotlib numpy pandas ưu_tiên kinh_nghiệm sử_dụng opencv đọc tiếng kỹ_năng làm_việc tham_gia triển_khai dịch_vụ trí_tuệ nhân_tạo lĩnh_vực thị_giác máy_tính xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên nghiên_cứu áp_dụng công_nghệ triển_khai bài_toán ứng_dụng ekyc chatbot scanextraction thông_tin giải_quyết bài_toán machine learning deep learning khácai engineer</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>63914fb52e7bf4e4662d637f</t>
+          <t>639150eb2e7bf4e4662d638f</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ít_nhất kinh_nghiệm lĩnh_vực machine learning deep learning tham_gia ít_nhất project triển_khai thành_công sử_dụng sử_dụng thành_thạo ngôn_ngữ python go cc thành_thạo ít_nhất framework tensorflow keras pytorch sử_dụng thư_viện matplotlib numpy pandas ưu_tiên kinh_nghiệm sử_dụng opencv đọc tiếng kỹ_năng làm_việc tham_gia triển_khai dịch_vụ trí_tuệ nhân_tạo lĩnh_vực thị_giác máy_tính xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên nghiên_cứu áp_dụng công_nghệ triển_khai bài_toán ứng_dụng ekyc chatbot scanextraction thông_tin giải_quyết bài_toán machine learning deep learning khácai engineer</t>
+          <t>has years of experience working as an data developer scientist advance sql knowledge and experience working with rdbms as well as working farmiliarity with variety of databases and database engine experience building and optimizing data pipeline architectures and datasets in cloud build processes supporting data transformation data structures metadata dependency and workload management experience in data mining understanding of ml and operation research knowledge of sql and python it s plus if you known nodejs or javascript experience using bi tools and data frameworks good at math skillsdata warehouse data mining data pipeline google cloud platfarm pythontạo duy_trì kiến trúc đường_ống liệuxây dựng cơ_sở hạ_tầng cần_thiết trích chuyển_đổi tải dữ_liệu dữ_liệu công_nghệ sql gdpgiữ dữ_liệu phân_tách bảo_mật xuyên biên_giới quốc_gia thông_qua trung_tâm dữ_liệu gdpxây dựng công_cụ phân_tích tận_dụng đường truyền dữ_liệu cung_cấp sâu_sắc có_thể hành_động hiệu_quả hoạt_động chỉ_số_hiệu_suất kinh_doanh quan_trọng khácthực thu_thập tiền xử_lý phân_tích liệuáp_dụng ngôn_ngữ kỹ_thuật xây_dựng mô_hình giải_quyết vấn_đề kinh doanhxác dữ_liệu giá_trị tự_động hóa quy_trình thu thậpphân tích thông_tin khám_phá xu_hướng mô hìnhxây dựng mô_hình dự_đoán thuật_toán mltiến hành tiền xử_lý dữ_liệu cấu_trúc phi_cấu trúckết mô_hình thông_qua mô_hình hợpdata developer scientist</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>639150eb2e7bf4e4662d638f</t>
+          <t>639152462e7bf4e4662d63a1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>has years of experience working as an data developer scientist advance sql knowledge and experience working with rdbms as well as working farmiliarity with variety of databases and database engine experience building and optimizing data pipeline architectures and datasets in cloud build processes supporting data transformation data structures metadata dependency and workload management experience in data mining understanding of ml and operation research knowledge of sql and python it s plus if you known nodejs or javascript experience using bi tools and data frameworks good at math skillsdata warehouse data mining data pipeline google cloud platfarm pythontạo duy_trì kiến trúc đường_ống liệuxây dựng cơ_sở hạ_tầng cần_thiết trích chuyển_đổi tải dữ_liệu dữ_liệu công_nghệ sql gdpgiữ dữ_liệu phân_tách bảo_mật xuyên biên_giới quốc_gia thông_qua trung_tâm dữ_liệu gdpxây dựng công_cụ phân_tích tận_dụng đường truyền dữ_liệu cung_cấp sâu_sắc có_thể hành_động hiệu_quả hoạt_động chỉ_số_hiệu_suất kinh_doanh quan_trọng khácthực thu_thập tiền xử_lý phân_tích liệuáp_dụng ngôn_ngữ kỹ_thuật xây_dựng mô_hình giải_quyết vấn_đề kinh doanhxác dữ_liệu giá_trị tự_động hóa quy_trình thu thậpphân tích thông_tin khám_phá xu_hướng mô hìnhxây dựng mô_hình dự_đoán thuật_toán mltiến hành tiền xử_lý dữ_liệu cấu_trúc phi_cấu trúckết mô_hình thông_qua mô_hình hợpdata developer scientist</t>
+          <t>nam tốt_nghiệp chuyên_ngành cơ_điện_tử công_nghệ thông_tin toán ứng_dụng khoa_học máy tínhhoặc chuyên_ngành liên_quan ngoại_ngữ tiếng đọc viết tiếng nhật ưu_tiên khả_năng lập_trình ngôn_ngữ c python nền_tảng cơ_bản xử_lý ảnh thị_giác máy_tính thuật_toán_học máy tiếp_xúc thư viên open cvtensorflowpytorch kiến_thức mô_hình thần_kinh nhân_tạo yolo autoencoder lợi_thế hiểu_biết plc lập_trình giao_tiếp máy_tính plc visual studio community pycharm community nhanh_nhẹn trung_thực tinh_thần trách_nhiệm hợp_tác team works giao_tiếp tự_tin cởi_mở áp_dụng thuật_toán xử_lý ảnh học máy học sâu bài_toán kiểm_tra ngoại sản_phẩm phân_tích hiệu_quả thuật_toán cải_tiến hệ thốngkỹ sư bộ_phận nghiên_cứu phát_triển</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>639152462e7bf4e4662d63a1</t>
+          <t>639155242e7bf4e4662d63b1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>nam tốt_nghiệp chuyên_ngành cơ_điện_tử công_nghệ thông_tin toán ứng_dụng khoa_học máy tínhhoặc chuyên_ngành liên_quan ngoại_ngữ tiếng đọc viết tiếng nhật ưu_tiên khả_năng lập_trình ngôn_ngữ c python nền_tảng cơ_bản xử_lý ảnh thị_giác máy_tính thuật_toán_học máy tiếp_xúc thư viên open cvtensorflowpytorch kiến_thức mô_hình thần_kinh nhân_tạo yolo autoencoder lợi_thế hiểu_biết plc lập_trình giao_tiếp máy_tính plc visual studio community pycharm community nhanh_nhẹn trung_thực tinh_thần trách_nhiệm hợp_tác team works giao_tiếp tự_tin cởi_mở áp_dụng thuật_toán xử_lý ảnh học máy học sâu bài_toán kiểm_tra ngoại sản_phẩm phân_tích hiệu_quả thuật_toán cải_tiến hệ thốngkỹ sư bộ_phận nghiên_cứu phát_triển</t>
+          <t>cử_nhân khoa_học máy_tính kỹ_thuật lĩnh_vực liên_quan học máy toán_học thống_kê kinh_nghiệm thiết_lập xây_dựng kiến trúc dữ_liệu đường_ống triển_khai mô_hình môi_trường rõ_ràng kinh_nghiệm áp_dụng kỹ_thuật máy học giải_quyết vấn_đề kinh_doanh phức_tạp thông_số ảnh_hưởng hiệu_suất kinh_nghiệm phát_triển kế_hoạch thử_nghiệm phân_tích quy_trình mô_hình_hóa dữ_liệu sử_dụng đường cơ_sở vững_chắc khả_năng xác_định chính_xác quan_hệ nhân_quả thông_thạo thao_tác dữ_liệu dựa sql kinh_nghiệm chuyên_sâu sử_dụng ngôn_ngữ kịch_bản r python phân_tích dữ_liệu phát_triển mô_hình thống_kê phân_tích khám_phá hiểu_biết sâu_sắc phân khúc giúp thúc_đẩy doanh_nghiệp phát_triển khám_phá lĩnh_vực cơ_hội áp_dụng phương_pháp học máy phát_triển phát_triển thử_nghiệm cải_tiến chạy thử_nghiệm tính_toán tinh_chỉnh tham_số viết mã python r scala sql vv thao_tác phân_tích dữ_liệu data scientist</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>639155242e7bf4e4662d63b1</t>
+          <t>639155c42e7bf4e4662d63b5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>cử_nhân khoa_học máy_tính kỹ_thuật lĩnh_vực liên_quan học máy toán_học thống_kê kinh_nghiệm thiết_lập xây_dựng kiến trúc dữ_liệu đường_ống triển_khai mô_hình môi_trường rõ_ràng kinh_nghiệm áp_dụng kỹ_thuật máy học giải_quyết vấn_đề kinh_doanh phức_tạp thông_số ảnh_hưởng hiệu_suất kinh_nghiệm phát_triển kế_hoạch thử_nghiệm phân_tích quy_trình mô_hình_hóa dữ_liệu sử_dụng đường cơ_sở vững_chắc khả_năng xác_định chính_xác quan_hệ nhân_quả thông_thạo thao_tác dữ_liệu dựa sql kinh_nghiệm chuyên_sâu sử_dụng ngôn_ngữ kịch_bản r python phân_tích dữ_liệu phát_triển mô_hình thống_kê phân_tích khám_phá hiểu_biết sâu_sắc phân khúc giúp thúc_đẩy doanh_nghiệp phát_triển khám_phá lĩnh_vực cơ_hội áp_dụng phương_pháp học máy phát_triển phát_triển thử_nghiệm cải_tiến chạy thử_nghiệm tính_toán tinh_chỉnh tham_số viết mã python r scala sql vv thao_tác phân_tích dữ_liệu data scientist</t>
+          <t>kiến_thức căn_bản data mining ml kiến_thức kinh_nghiệm sử_dụng spark etl with scala python hadoop ecosys kiến_thức kinh_nghiệm tối_ưu luồng xử_lý data landing zone working zone gold zone kỹ_thuật thiết_kế job tối_ưu dữ_liệu kỹ_thuật orchestration luồng job kiến_thức kinh_nghiệm db sql db oracle netezza mysql postgresql mariadb amazon aurona nosql db elasticsearch apache cassandra apache hbase google bigtale apache pinot graph db tigergraph amazon nepture memory db redis memcached kiến_thức kinh_nghiệm machine learning thoery keras tensorflow pytorch scikitlearn numpy pandas zeppline jupiter hub tham_gia quy_trình xây_dựng bảo_trì model elt data cleaning data analytic data building model testing model sharing with business for feedback deploying model visualization maintenance model educating business and teamschuyên giachuyên viên cao_cấp data engineer</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>639155c42e7bf4e4662d63b5</t>
+          <t>639156872e7bf4e4662d63bb</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>kiến_thức căn_bản data mining ml kiến_thức kinh_nghiệm sử_dụng spark etl with scala python hadoop ecosys kiến_thức kinh_nghiệm tối_ưu luồng xử_lý data landing zone working zone gold zone kỹ_thuật thiết_kế job tối_ưu dữ_liệu kỹ_thuật orchestration luồng job kiến_thức kinh_nghiệm db sql db oracle netezza mysql postgresql mariadb amazon aurona nosql db elasticsearch apache cassandra apache hbase google bigtale apache pinot graph db tigergraph amazon nepture memory db redis memcached kiến_thức kinh_nghiệm machine learning thoery keras tensorflow pytorch scikitlearn numpy pandas zeppline jupiter hub tham_gia quy_trình xây_dựng bảo_trì model elt data cleaning data analytic data building model testing model sharing with business for feedback deploying model visualization maintenance model educating business and teamschuyên giachuyên viên cao_cấp data engineer</t>
+          <t>kinh_nghiệm làm_việc dịch_vụ web restful kiến_thức kinh_nghiệm rdbms sqlnosql kinh_nghiệm lập_trình ít_nhất javascript nodejs java spring c kinh_nghiệm môi_trường dựa linux khả_năng học_hỏi kinh_nghiệm sử_dụng công_cụ cộng_tác jira confluence kinh_nghiệm javamysqlelk cập_nhật xu_hướng thiết_kế công_nghệ cởi_mở thảo_luận thiết_kế đánh_giá mã kinh_nghiệm phát_triển dựa đám mây aws gcp kinh_nghiệm kiểm_soát phiên_bản git svn etc phát_triển dịch_vụ nền_tảng công_cụ vận_hành phát_hành game phát_triển restful api dựa nền_tảng liên_kết phát_triển phân_tích dữ_liệu đa_dạng xử_lý phân_phối dữ_liệu phát_triển dịch_vụ quản_lý thông_tin quản_lý_tài_khoản theo_dõi báo_cáo thống_kê cần_thiết phát_triển máy_chủ phụ_trợ giao_diện_tích_hợp nền_tảng cổng api hàng đợi nhắn phân_tán vv phát_triển hệ_thống xử_lý thời_gian game big databackend developer nodejs java c</t>
         </is>
       </c>
     </row>
@@ -916,12 +916,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>639156872e7bf4e4662d63bb</t>
+          <t>639159492e7bf4e4662d63dd</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>kinh_nghiệm làm_việc dịch_vụ web restful kiến_thức kinh_nghiệm rdbms sqlnosql kinh_nghiệm lập_trình ít_nhất javascript nodejs java spring c kinh_nghiệm môi_trường dựa linux khả_năng học_hỏi kinh_nghiệm sử_dụng công_cụ cộng_tác jira confluence kinh_nghiệm javamysqlelk cập_nhật xu_hướng thiết_kế công_nghệ cởi_mở thảo_luận thiết_kế đánh_giá mã kinh_nghiệm phát_triển dựa đám mây aws gcp kinh_nghiệm kiểm_soát phiên_bản git svn etc phát_triển dịch_vụ nền_tảng công_cụ vận_hành phát_hành game phát_triển restful api dựa nền_tảng liên_kết phát_triển phân_tích dữ_liệu đa_dạng xử_lý phân_phối dữ_liệu phát_triển dịch_vụ quản_lý thông_tin quản_lý_tài_khoản theo_dõi báo_cáo thống_kê cần_thiết phát_triển máy_chủ phụ_trợ giao_diện_tích_hợp nền_tảng cổng api hàng đợi nhắn phân_tán vv phát_triển hệ_thống xử_lý thời_gian game big databackend developer nodejs java c</t>
+          <t>kinh_nghiệm lập_trình unity kinh_nghiệm code dự_án game thẻ tướng game nhập_vai game kiến_thức chuyên_sâu lập_trình c java am_hiểu khía_cạnh phát_triển game bao_gồm ui animation sounds level design kinh_nghiệm tích_hợp firebase analytics fcm ít_nhất game code unity cá_nhân công_ty gửi kèm sản_phẩm cv ứng_tuyển kinh_nghiệm hyper casualcasual gamepuzzle game sử_dụng unity phát_triển mobile game phát_hành google play app store định_hướng thị_trường bắc mỹ tham_gia dự_án game code unity phần_mềm lập_trình phối_hợp thành_viên team hoàn_thiện tối_ưu game animation ui ux game developer unity developer</t>
         </is>
       </c>
     </row>
@@ -931,12 +931,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>639159492e7bf4e4662d63dd</t>
+          <t>639159c52e7bf4e4662d63e9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>kinh_nghiệm lập_trình unity kinh_nghiệm code dự_án game thẻ tướng game nhập_vai game kiến_thức chuyên_sâu lập_trình c java am_hiểu khía_cạnh phát_triển game bao_gồm ui animation sounds level design kinh_nghiệm tích_hợp firebase analytics fcm ít_nhất game code unity cá_nhân công_ty gửi kèm sản_phẩm cv ứng_tuyển kinh_nghiệm hyper casualcasual gamepuzzle game sử_dụng unity phát_triển mobile game phát_hành google play app store định_hướng thị_trường bắc mỹ tham_gia dự_án game code unity phần_mềm lập_trình phối_hợp thành_viên team hoàn_thiện tối_ưu game animation ui ux game developer unity developer</t>
+          <t>tốt_nghiệp tốt_nghiệp chuyên_ngành cntt sử_dụng unity bắt_buộc nắm kiến_thức ngôn_ngữ lập_trình c c nắm vững kiến_thức cấu_trúc dữ_liệu giải_thuật thuật_toán nền_tảng oop khả_năng tư_duy học_hỏi kiến_thức game điện_thoại_di_động đọc tiếng dự_án game lợi_thế đào_tạo trở_thành nhân_viên chính_thức phối_hợp producer game designer artist phác_họa ý_tưởng xây_dựng trò_chơi prototype hướng_dẫn cài_đặt tính_năng phát_triển sản_phẩm gamegame development fresher</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>639159c52e7bf4e4662d63e9</t>
+          <t>63915a792e7bf4e4662d6401</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>tốt_nghiệp tốt_nghiệp chuyên_ngành cntt sử_dụng unity bắt_buộc nắm kiến_thức ngôn_ngữ lập_trình c c nắm vững kiến_thức cấu_trúc dữ_liệu giải_thuật thuật_toán nền_tảng oop khả_năng tư_duy học_hỏi kiến_thức game điện_thoại_di_động đọc tiếng dự_án game lợi_thế đào_tạo trở_thành nhân_viên chính_thức phối_hợp producer game designer artist phác_họa ý_tưởng xây_dựng trò_chơi prototype hướng_dẫn cài_đặt tính_năng phát_triển sản_phẩm gamegame development fresher</t>
+          <t>game ít_nhất kinh_nghiệm phát_triển trò_chơi khả_năng làm_việc khía_cạnh phát_triển ứng_dụng bao_gồm ui animation khả_năng leader mentor tốt_nghiệp cử_nhân khoa_học máy_tính liên_quan kiến_thức vững_chắc công_cụ phát_triển c hiểu_biết oop design patterns tư_duy logic chủ_động công_việc tinh_thần trách_nhiệm phát_triển mobile game nền_tảng unity phối_hợp thành_viên team hoàn_thiện tối_ưu game animation ui ux effect hỗ_trợ hướng_dẫn thành_viên junior nâng chuyên_môn tham_gia maintain game phát_hành prototype ý_tưởng game mớigame developer unity developer</t>
         </is>
       </c>
     </row>
@@ -961,25 +961,10 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>63915a792e7bf4e4662d6401</t>
+          <t>63915bf92e7bf4e4662d6415</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
-        <is>
-          <t>game ít_nhất kinh_nghiệm phát_triển trò_chơi khả_năng làm_việc khía_cạnh phát_triển ứng_dụng bao_gồm ui animation khả_năng leader mentor tốt_nghiệp cử_nhân khoa_học máy_tính liên_quan kiến_thức vững_chắc công_cụ phát_triển c hiểu_biết oop design patterns tư_duy logic chủ_động công_việc tinh_thần trách_nhiệm phát_triển mobile game nền_tảng unity phối_hợp thành_viên team hoàn_thiện tối_ưu game animation ui ux effect hỗ_trợ hướng_dẫn thành_viên junior nâng chuyên_môn tham_gia maintain game phát_hành prototype ý_tưởng game mớigame developer unity developer</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>63915bf92e7bf4e4662d6415</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>tốt_nghiệp đại_học chuyên_ngành kỹ_thuật phần_mềm toán khoa_học máy_tính kinh_nghiệm làm_việc java core java frameworks spring framework spring boot kinh_nghiệm team lead kiến_thức kinh_nghiệm làm_việc nosql relational database microservices architecture software design principles unit and functional testing git and cicd lợi_thế hiểu_biết software logging and monitoring uml diagrams classsequence diagram lợi_thế quen_thuộc domain driven design devops and agile principles lợi_thế tham_gia xây_dựng platforms khả_năng scaling performance trải nghiệm khách_hàng nền_tảng phát_triển giải_quyết bài_toán data realtime recommendation realtime ab testing thiết_kế domain driven design triển_khai clean code unit test deployment đảm_bảo_an_toàn hệ_thống hỗ_trợ tiếp_nhận phân_tích yêu_cầu stakeholders business analysist teambackend engineer</t>
         </is>

--- a/recommendApi/media/jobDbData1.xlsx
+++ b/recommendApi/media/jobDbData1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,6 +970,21 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>6391c7aec9e52721855e339d</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>kinh_nghiệm phân_tích thiết_kế hệ_thống kinh_nghiệm lập_trình php laravel framework tương_tự java lợi_thế kinh_nghiệm chuyên_sâu csscss javascript jquery ajax hiểu_biết chuyên_sâu apache server database mysql linux server network and security kiến_trúc phát_triển hệ_thống thương_mại điện_tử toàn_cầu web mobile multidomain multilanguages traffic dữ_liệu lập_trình mảng micro service cơ_hội đảm_trách tất_cả kỹ_năng fullstack developer xây_dựng yêu_cầu release vận_hành hệ_thống môi_trường tiêu_chuẩn nhật quy_trình chất_lượng dự_án product cơ_hội đề_xuất hiện_thực ý_tưởng hợp_lý hiệu_quả hoàn_thiện sản_phẩm php developers</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/recommendApi/media/jobDbData1.xlsx
+++ b/recommendApi/media/jobDbData1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sinh_viên đãsắp tốt_nghiệp chuyên_ngành công_nghệ thông_tin toán khoa_học máy_tính kỹ_thuật phần_mềm điện_tử viễn_thông chuyên_ngành liên_quan nắm vững kiến_thức cơ_bản lập_trình hướng đối_tượng java có_thể tham_gia đào tạolàm fulltime ham học_hỏi máu_lửa nhiệt_huyết sẵn_sàng chinh_chiến đối_đầu thử_thách khó_khăn dự_án phần_mềm tuân_thủ kỷ_luật trách_nhiệm công_việc ưu_tiên ứng_viên khả_năng đọc tiếng tham_gia chương_trình đào_tạo tân_binh đào_tạo chuyên_sâu vòng java web chuẩn_bị kiến_thức hoàn_thiện kỹ_năng tham_gia dự_án nội_dung bao_gồm o kiến_thức database mô_hình quan_hệ thực_thể erm hệ quản_trị cơ_sở dữ_liệu microsoft sql server làm_việc truy sql tsql statements advanced dml sql join index view sử_dụng đối_tượng nâng database objects transactions stored procedure user defined function trigger o lập_trình java web java core java se basic concepts controlflow keyword classes and objects oop string static collections java io concurrency lambda expressions exceptions jdbc thiết_kế web bootstrap js jquery ajax jspservlet basics exception handling mô_hình mvc hibernate configuration hibernate mapping queries and criteria performance stored procedure sử_dụng thành_thạo spring framework spring core spring mvc xml javabase annotation spring data jpa spring build tools maven gradle o phát_triển phần_mềm quy_trình chuyên_nghiệp thực_hiện dự_án bao_gồm thiết_kế ứng_dụng gui thiết_kế code thực_hiện code review using stylecop fxcop unit test nunit kiểm_tra chất_lượng dự_án luyện_tập kỹ_năng code dự_án chuyên_gia_công_nghệ lập_trình_viên kinh nghiệmfresher java web fullstack developer</t>
+          <t>fresher java web fullstack fresher java web fullstack fresher java web fullstack sinh_viên đãsắp tốt_nghiệp chuyên_ngành công_nghệ thông_tin toán khoa_học máy_tính kỹ_thuật phần_mềm điện_tử viễn_thông chuyên_ngành liên_quan nắm vững kiến_thức cơ_bản lập_trình hướng đối_tượng java có_thể tham_gia đào tạolàm fulltime ham học_hỏi máu_lửa nhiệt_huyết sẵn_sàng chinh_chiến đối_đầu thử_thách khó_khăn dự_án phần_mềm tuân_thủ kỷ_luật trách_nhiệm công_việc ưu_tiên ứng_viên khả_năng đọc tiếng tham_gia chương_trình đào_tạo tân_binh đào_tạo chuyên_sâu vòng java web chuẩn_bị kiến_thức hoàn_thiện kỹ_năng tham_gia dự_án nội_dung bao_gồm o kiến_thức database mô_hình quan_hệ thực_thể erm hệ quản_trị cơ_sở dữ_liệu microsoft sql server làm_việc truy sql tsql statements advanced dml sql join index view sử_dụng đối_tượng nâng database objects transactions stored procedure user defined function trigger o lập_trình java web java core java se basic concepts controlflow keyword classes and objects oop string static collections java io concurrency lambda expressions exceptions jdbc thiết_kế web bootstrap js jquery ajax jspservlet basics exception handling mô_hình mvc hibernate configuration hibernate mapping queries and criteria performance stored procedure sử_dụng thành_thạo spring framework spring core spring mvc xml javabase annotation spring data jpa spring build tools maven gradle o phát_triển phần_mềm quy_trình chuyên_nghiệp thực_hiện dự_án bao_gồm thiết_kế ứng_dụng gui thiết_kế code thực_hiện code review using stylecop fxcop unit test nunit kiểm_tra chất_lượng dự_án luyện_tập kỹ_năng code dự_án chuyên_gia_công_nghệ kinh_nghiệm</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>thành_thạo git html css javascript hiểu_biết java core lập_trình hướng đối_tượng kiến_thức thiết_kế hệ_thống db api khả_năng làm_việc độc_lập làm_việc nhómlập api web app sử_dụng spring boot framework thiết_kế xây_dựng hệ_thống xử_lý logic thao_tác cơ_sở dữ_liệu phạm_vi công_việc yêu_cầu khách_hàng viết tài_liệu thiết_kế hệ_thống develop testing deploy vận_hành hệ_thống khách_hàng phối_hợp chặt_chẽ lập_trình công_việc hoàn_thành thời_hạn thống_nhất yêu_cầu dự ánfresher java developer</t>
+          <t>fresher java fresher java fresher java thành_thạo git html css javascript hiểu_biết java core lập_trình hướng đối_tượng kiến_thức thiết_kế hệ_thống db api khả_năng làm_việc độc_lập làm_việc lập_trình api web app sử_dụng spring boot framework thiết_kế xây_dựng hệ_thống xử_lý logic thao_tác cơ_sở dữ_liệu phạm_vi công_việc yêu_cầu khách_hàng viết tài_liệu thiết_kế hệ_thống develop testing deploy vận_hành hệ_thống khách_hàng phối_hợp chặt_chẽ lập_trình công_việc hoàn_thành thời_hạn thống_nhất yêu_cầu dự_án</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sinh_viên đãsắp tốt_nghiệp chuyên_ngành công_nghệ thông_tin toán khoa_học máy_tính kỹ_thuật phần_mềm điện_tử viễn_thông chuyên_ngành liên_quan nắm vững kiến_thức cơ_bản lập_trình hướng đối_tượng net có_thể tham_gia đào tạolàm fulltime ham học_hỏi máu_lửa nhiệt_huyết sẵn_sàng chinh_chiến đối_đầu thử_thách khó_khăn dự_án phần_mềm tuân_thủ kỷ_luật trách_nhiệm công_việc ưu_tiên ứng_viên khả_năng đọc tiếng tốtkiến thức database mô_hình quan_hệ thực_thể erm hệ quản_trị cơ_sở dữ_liệu microsoft sql server làm_việc truy sql tsql statements advanced dml sql join index view sử_dụng đối_tượng nâng database objects transactions stored procedure user defined function trigger lập_trình net variableconstant data type control of flow lập_trình hướng đối_tượng oop linq sử_dụng collectionsgenerics kết_nối cơ_sở dữ_liệu adonet làm_việc winforms làm_việc io exception lập_trình concurrency net technologies web app aspnet mvc thiết_kế web html css js jquery ajax sử_dụng entity framework phát_triển phần_mềm quy_trình chuyên_nghiệp thực_hiện dự_án bao_gồm thiết_kế ứng_dụng gui thiết_kế code thực_hiện code review using stylecop fxcop unit test nunit kiểm_tra chất_lượng dự_án luyện_tập kỹ_năng code dự_án chuyên_gia_công_nghệ lập_trình_viên kinh nghiệmfresher net</t>
+          <t>fresher net fresher net fresher net sinh_viên đãsắp tốt_nghiệp chuyên_ngành công_nghệ thông_tin toán khoa_học máy_tính kỹ_thuật phần_mềm điện_tử viễn_thông chuyên_ngành liên_quan nắm vững kiến_thức cơ_bản lập_trình hướng đối_tượng net có_thể tham_gia đào tạolàm fulltime ham học_hỏi máu_lửa nhiệt_huyết sẵn_sàng chinh_chiến đối_đầu thử_thách khó_khăn dự_án phần_mềm tuân_thủ kỷ_luật trách_nhiệm công_việc ưu_tiên ứng_viên khả_năng đọc tiếng kiến_thức database mô_hình quan_hệ thực_thể erm hệ quản_trị cơ_sở dữ_liệu microsoft sql server làm_việc truy sql tsql statements advanced dml sql join index view sử_dụng đối_tượng nâng database objects transactions stored procedure user defined function trigger lập_trình net variableconstant data type control of flow lập_trình hướng đối_tượng oop linq sử_dụng collectionsgenerics kết_nối cơ_sở dữ_liệu adonet làm_việc winforms làm_việc io exception lập_trình concurrency net technologies web app aspnet mvc thiết_kế web html css js jquery ajax sử_dụng entity framework phát_triển phần_mềm quy_trình chuyên_nghiệp thực_hiện dự_án bao_gồm thiết_kế ứng_dụng gui thiết_kế code thực_hiện code review using stylecop fxcop unit test nunit kiểm_tra chất_lượng dự_án luyện_tập kỹ_năng code dự_án chuyên_gia_công_nghệ kinh_nghiệm</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>cao_đẳng cử_nhân kỹ_thuật phần_mềm công_nghệ thông_tin chuyên_ngành liên_quan ít_nhất kinh_nghiệm phát_triển net phát_triển sự_nghiệp lĩnh_vực phát_triển web kiến thức lập_trình hướng đối_tượng oop kinh_nghiệm dự_án thực_tế lợi_thế khả_năng sử_dụng tiếng tư_duy logic tinh_thần làm_việc khả_năng học_hỏi công_nghệ chủ_động tổ_chức trách_nhiệm công_việc kinh_nghiệm làm_việc html css javascript kiến thức sql ngôn_ngữ thủ_tục cơ_sở dữ_liệu kinh_nghiệm dự_án thực_tế lợi_thế kiến_thức vững_chắc azure js framework reactjs angularjs vuejs cộng tham_gia chương_trình nextgen titan chúng_tôi tư_cách phát_triển net học_viên tham_gia dự_án thực_tế hưởng chế_độ phúc_lợi hấp_dẫn hướng_dẫn phát_triển khắc_phục sự_cố ứng_dụng web viết net đào_tạo vòng đời phát_triển phần_mềm chuyên_gia kinh_nghiệm tay_nghề đào_tạo kỹ_năng mềm thiếtfresher net developer</t>
+          <t>fresher net fresher net fresher net cao_đẳng cử_nhân kỹ_thuật phần_mềm công_nghệ thông_tin chuyên_ngành liên_quan ít_nhất kinh_nghiệm phát_triển net phát_triển sự_nghiệp lĩnh_vực phát_triển web kiến thức lập_trình hướng đối_tượng oop kinh_nghiệm dự_án thực_tế lợi_thế khả_năng sử_dụng tiếng tư_duy logic tinh_thần làm_việc khả_năng học_hỏi công_nghệ chủ_động tổ_chức trách_nhiệm công_việc kinh_nghiệm làm_việc html css javascript kiến thức sql ngôn_ngữ thủ_tục cơ_sở dữ_liệu kinh_nghiệm dự_án thực_tế lợi_thế kiến_thức vững_chắc azure js framework reactjs angularjs vuejs cộng tham_gia chương_trình nextgen titan chúng_tôi tư_cách phát_triển net học_viên tham_gia dự_án thực_tế hưởng chế_độ phúc_lợi hấp_dẫn hướng_dẫn phát_triển khắc_phục sự_cố ứng_dụng web viết net đào_tạo vòng đời phát_triển phần_mềm chuyên_gia kinh_nghiệm tay_nghề đào_tạo kỹ_năng mềm cần_thiết</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sinh_viên tốt_nghiệp có_thể làm_việc fulltime đam_mê học_hỏi lập_trình tìm_hiểu công_nghệ kiến_thức cấu_trúc dữ_liệu giải_thuật kiến_thức cơ_bản ngôn_ngữ nodejs nắm kiến_thức kĩ_năng javascript restful api khả_năng đọc tài_liệu tiếng tham_gia phát_triển hệ_thống erp công_ty phân hệ quản_lý nhân_sự quản_lý sản_xuất kho hàng hàng giao hàng bảo_hành nền_tảng web mobile tham_gia đào_tạo training tìm_hiểu nodejs tham_gia dự_án thực_tế thời_gian đào_tạo hướng_dẫn hỗ_trợ lộ_trình nghiệpfresher nodejs</t>
+          <t>fresher nodejs fresher nodejs fresher nodejs sinh_viên tốt_nghiệp có_thể làm_việc fulltime đam_mê học_hỏi lập_trình tìm_hiểu công_nghệ kiến_thức cấu_trúc dữ_liệu giải_thuật kiến_thức cơ_bản ngôn_ngữ nodejs nắm kiến_thức kĩ_năng javascript restful api khả_năng đọc tài_liệu tiếng tham_gia phát_triển hệ_thống erp công_ty phân hệ quản_lý nhân_sự quản_lý sản_xuất kho hàng hàng giao hàng bảo_hành nền_tảng web mobile tham_gia đào_tạo training tìm_hiểu nodejs tham_gia dự_án thực_tế thời_gian đào_tạo hướng_dẫn hỗ_trợ lộ_trình sự_nghiệp</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>kinh_nghiệm làm_việc nền_tảng_wordpress ngôn_ngữ php tốt_nghiệp đại_học chuyên_ngành công_nghệ thông_tin thành_thạo htmljavascriptjquerycssajax cms wordpress kiến_thức hệ quản_trị cơ_sở dữ_liệu mysql ưu_tiên kinh_nghiệm tiếp_xúc làm_việc nền_tảng thiết_kế website php framework laravel codeigniter cms wordpress joomla kiến_thức cơ_bản aspnet khả_năng tư_duy chủ_động công_việc tinh_thần trách_nhiệm hoàn_thành công_việc giao thiết_kế website công_ty khách_hàng đối_tác dựa file thiết_kế sẵn lập_trình chức_năng website yêu_cầu chỉnh_sửa lỗi liên_quan giao_diện chức_năng website tham_gia phát_triển tối_ưu sản_phẩm website ngày_càng chuẩn_hoá thời_gian thực_hiện dự_án tối_ưu chi_phí triển_khai lập_trình chỉnh_sửa tối_ưu website tiêu_chuẩn công_ty kiểm_tra khắc_phục website hack nhiễm mã độc công_việc giao quản lýlập viên wordpress</t>
+          <t>wordpress wordpress wordpress kinh_nghiệm làm_việc nền_tảng_wordpress ngôn_ngữ php tốt_nghiệp đại_học chuyên_ngành công_nghệ thông_tin thành_thạo htmljavascriptjquerycssajax cms wordpress kiến_thức hệ quản_trị cơ_sở dữ_liệu mysql ưu_tiên kinh_nghiệm tiếp_xúc làm_việc nền_tảng thiết_kế website php framework laravel codeigniter cms wordpress joomla kiến_thức cơ_bản aspnet khả_năng tư_duy chủ_động công_việc tinh_thần trách_nhiệm hoàn_thành công_việc giao thiết_kế website công_ty khách_hàng đối_tác dựa file thiết_kế sẵn lập_trình chức_năng website yêu_cầu chỉnh_sửa lỗi liên_quan giao_diện chức_năng website tham_gia phát_triển tối_ưu sản_phẩm website ngày_càng chuẩn_hoá thời_gian thực_hiện dự_án tối_ưu chi_phí triển_khai lập_trình chỉnh_sửa tối_ưu website tiêu_chuẩn công_ty kiểm_tra khắc_phục website hack nhiễm mã độc công_việc giao quản_lý</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>php căn_bản php nâng mvc oop lợi_thế jquery htmlcss căn_bản sử_dụng cms wordpress theme wordpress plugin code wordpress core theme mysql database lợi_thế tư_duy logic khả_năng research thực_hiện website html tĩnh website động cms wordpress lập_trình plugin tính_năng yêu_cầu phát_sinh kết_nối cms wordpress phần_mềm thông_qua rest api triển_khai dự_án giải_pháp thực_tế khách_hàng phát_triển tính_năng chức_năng hay_ho tếlập viên php wordpress</t>
+          <t>php wordpress php wordpress php wordpress php căn_bản php nâng mvc oop lợi_thế jquery htmlcss căn_bản sử_dụng cms wordpress theme wordpress plugin code wordpress core theme mysql database lợi_thế tư_duy logic khả_năng research thực_hiện website html tĩnh website động cms wordpress lập_trình plugin tính_năng yêu_cầu phát_sinh kết_nối cms wordpress phần_mềm thông_qua rest api triển_khai dự_án giải_pháp thực_tế khách_hàng phát_triển tính_năng chức_năng hay_ho thực_tế</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sinh_viên tốt_nghiệp ngành cntt công_nghệ phần_mềm khoa_học máy_tính ngành quannắm vững kiến_thức dự_án sử_dụng ngôn_ngữ netcó làm_việc fulltimetiếng khátham gia quá_trình triển_khai vận_hành dự_án trìnhhoàn bài_tập khóa học cá_nhân yêu_cầu mentorthực công_việc chỉ_đạo pmthực net</t>
+          <t>thực_tập_sinh net thực_tập_sinh net thực_tập_sinh net sinh_viên tốt_nghiệp ngành cntt công_nghệ phần_mềm khoa_học máy_tính ngành quannắm vững kiến_thức dự_án sử_dụng ngôn_ngữ netcó làm_việc fulltimetiếng tham_gia quá_trình triển_khai vận_hành dự_án trìnhhoàn bài_tập khóa học cá_nhân yêu_cầu mentorthực công_việc chỉ_đạo pm</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>tốt_nghiệp họccao đẳng chuyên_ngành cntt đtvt kinh_nghiệm thành_thạo aspnet mvc net core kiến_thức microservices lợi_thế kinh_nghiệm làm_việc css html javascript jquery ajax kinh_nghiệm làm_việc mssql sử_dụng stored procedure hiểu_biết react js react native lợi_thế kinh_nghiệm dự_án phần_mềm quản_lý tham_gia phát_triển sản_phẩm công_ty crm mes tham_gia quá_trình nghiên_cứu công_nghệ phát_triển tính_năng triển_khai sản_phẩm khách_hàng doanh_nghiệp bảo_hành bảo_trì sản_phẩm quản_lý task hằng báo_cáo công_việc trênbackend net developer</t>
+          <t>backend net backend net backend net tốt_nghiệp họccao đẳng chuyên_ngành cntt đtvt kinh_nghiệm thành_thạo aspnet mvc net core kiến_thức microservices lợi_thế kinh_nghiệm làm_việc css html javascript jquery ajax kinh_nghiệm làm_việc mssql sử_dụng stored procedure hiểu_biết react js react native lợi_thế kinh_nghiệm dự_án phần_mềm quản_lý tham_gia phát_triển sản_phẩm công_ty crm mes tham_gia quá_trình nghiên_cứu công_nghệ phát_triển tính_năng triển_khai sản_phẩm khách_hàng doanh_nghiệp bảo_hành bảo_trì sản_phẩm quản_lý task hằng báo_cáo công_việc</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>làm_việc hiệu_quả react html css js jquery ajaxthành thạo responsive đảm_bảo hiển_thị duyệtthuần restful api graphqlthành thạo responsive đảm_bảo hiển_thị duyệthiểu kinh_nghiệm design pattern lợi_thế lớnbiết làm_việc amp tối_ưu giao_diện mobile tối_ưu hiệu_quả website google speed insight lợi thếhiểu seo lợi thếphát triển bảo_trì dự_án tính_năng hệ_thống crm công_ty nền_tảng công_nghệ reactjsnghiệp vụ quản_lý user khách_hàng hàng công_ty quy_trình nhập dữ_liệu khách_hàng viênphát triển website_đa_ngôn_ngữ nội_dung đa dạngtối ưu tốc_độ tải websitefrontend developer react</t>
+          <t>frontend react frontend react frontend react làm_việc hiệu_quả react html css js jquery ajaxthành thạo responsive đảm_bảo hiển_thị duyệtthuần restful api graphqlthành thạo responsive đảm_bảo hiển_thị duyệthiểu kinh_nghiệm design pattern lợi_thế lớnbiết làm_việc amp tối_ưu giao_diện mobile tối_ưu hiệu_quả website google speed insight lợi thếhiểu seo lợi_thế phát_triển bảo_trì dự_án tính_năng hệ_thống crm công_ty nền_tảng công_nghệ reactjsnghiệp vụ quản_lý user khách_hàng hàng công_ty quy_trình nhập dữ_liệu khách_hàng viênphát triển website_đa_ngôn_ngữ nội_dung đa dạngtối ưu tốc_độ tải website</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>yêu_cầu cử_nhân ưu_tiên ngành khoa_học máy_tính ít_nhất kinh_nghiệm kỹ_thuật kiến thức java spring framework chuyên_môn vững_chắc kinh_nghiệm thiết_kế kiến trúc phát_triển ứng_dụng spring kinh_nghiệm nền_tảng dev mi lợi_thế ít_nhất kinh_nghiệm oracle dbms hiểu_biết security có_thể triển_khai security code thiết_kế triển_khai bảo_trì thành_phần phần_mềm hệ_thống phân_tán phức_tạp phối_hợp chặt_chẽ qa hỗ_trợ kỹ_thuật chẩn_đoán giải_quyết lỗi phần_mềm một_cách hiệu_quả tham_gia hoạt_động thiết_kế hợp_tác đánh_giá mã sắp_xếp ưu_tiên nhiệm_vụ liên_lạc ước_tính nỗ_lực quản_lý tình_trạng dự_án kỳjava developer</t>
+          <t>java java java yêu_cầu cử_nhân ưu_tiên ngành khoa_học máy_tính ít_nhất kinh_nghiệm kỹ_thuật kiến thức java spring framework chuyên_môn vững_chắc kinh_nghiệm thiết_kế kiến trúc phát_triển ứng_dụng spring kinh_nghiệm nền_tảng dev mi lợi_thế ít_nhất kinh_nghiệm oracle dbms hiểu_biết security có_thể triển_khai security code thiết_kế triển_khai bảo_trì thành_phần phần_mềm hệ_thống phân_tán phức_tạp phối_hợp chặt_chẽ qa hỗ_trợ kỹ_thuật chẩn_đoán giải_quyết lỗi phần_mềm một_cách hiệu_quả tham_gia hoạt_động thiết_kế hợp_tác đánh_giá mã sắp_xếp ưu_tiên nhiệm_vụ liên_lạc ước_tính nỗ_lực quản_lý tình_trạng dự_án định_kỳ</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>kinh_nghiệm phát_triển ứng_dụng đa nền_tảng react native nền_tảng vững_chắc javascript redux redux saga redux thunk kinh_nghiệm phát_triển ứng_dụng di_động ngôn_ngữ swift object c ios java android flutter lợi_thế hiểu_biết kỹ_năng cơ_bản lập_trình hướng đối_tượng sử_dụng tool quản_lý source git svn khả_năng tự_quản_lý trách_nhiệm có_thể giao_tiếp làm_việc tham_gia phát_triển ứng_dụng mobile ios android hằng native react native flutter tập_trung hiệu_suất chất_lượng ứng_dụng hoàn_thiện trải nghiệm ux xây_dựng tối_ưu_hóa thông_số kỹ_thuật tiêu_chuẩn quá_trình phát_triển cải_thiện quy_trình phát_triển nghiên_cứu phân_tích giải_pháp kỹ_thuật đánh_giá giới_thiệu thúc_đẩy công_nghệ giải_quyết vấn_đề kỹ_thuật thực_hiện cụ_thể tham_gia xây_dựng nền_tảng có_thể đảm_trách vị_trí head of mobile team kỹ_năng kinh nghiệmmobile developer</t>
+          <t>mobile mobile mobile kinh_nghiệm phát_triển ứng_dụng đa nền_tảng react native nền_tảng vững_chắc javascript redux redux saga redux thunk kinh_nghiệm phát_triển ứng_dụng di_động ngôn_ngữ swift object c ios java android flutter lợi_thế hiểu_biết kỹ_năng cơ_bản lập_trình hướng đối_tượng sử_dụng tool quản_lý source git svn khả_năng tự_quản_lý trách_nhiệm có_thể giao_tiếp làm_việc tham_gia phát_triển ứng_dụng mobile ios android hằng native react native flutter tập_trung hiệu_suất chất_lượng ứng_dụng hoàn_thiện trải nghiệm ux xây_dựng tối_ưu_hóa thông_số kỹ_thuật tiêu_chuẩn quá_trình phát_triển cải_thiện quy_trình phát_triển nghiên_cứu phân_tích giải_pháp kỹ_thuật đánh_giá giới_thiệu thúc_đẩy công_nghệ giải_quyết vấn_đề kỹ_thuật thực_hiện cụ_thể tham_gia xây_dựng nền_tảng có_thể đảm_trách vị_trí head of mobile team kỹ_năng kinh_nghiệm</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>yêu_cầu kinh_nghiệm kỹ_năng dự_án thực_tế lập_trình ứng_dụng di_động react native ứng_dụng apple store google play lợi_thế thành_thạo typescript kiến_thức ngôn_ngữ lập_trình swift objectivec java kotlin lợi_thế kỹ_năng sử_dụng công_cụ hỗ_trợ quản_lý mã quản_lý tiến_trình công_việc nhiệt_tình ham học_hỏi mong_muốn tiến chủ_động nâng cao_trình_độ sáng_tạo kỹ_năng giao_tiếp xử_lý tình_huống giúp nắm_bắt cơ_hội hơnmô công_việc xây_dựng ứng_dụng di_động dự_án quản_trị nội_bộ nhân_viên kho hàng kế_toán vận_tải nhập_khẩu phần_mềm liên_quan ngành_nghề giao_nhận vận_tải duy_trì ứng_dụng di_động công_ty ios android reactnative hợp_tác thành_viên backend product designer qa qc đảm_bảo chất_lượng sản_phẩm phân_tích yêu_cầu thiết_kế phát_triển chức_năng dựa yêu_cầu sản_phẩm tiếp_tục tối_ưu_hóa sản_phẩm quy_trình phát_triển xác_định khắc_phục vấn_đề cải_thiện ổn_định khả_dụng sản_phẩm thực_hiện công_việc liên_quan chỉ_đạo trênđịa tòa hải_âu trường sơn phường tân bình tp hcmthời developer react native</t>
+          <t>mobile react native mobile react native mobile react native yêu_cầu kinh_nghiệm kỹ_năng dự_án thực_tế lập_trình ứng_dụng di_động react native ứng_dụng apple store google play lợi_thế thành_thạo typescript kiến_thức ngôn_ngữ lập_trình swift objectivec java kotlin lợi_thế kỹ_năng sử_dụng công_cụ hỗ_trợ quản_lý mã quản_lý tiến_trình công_việc nhiệt_tình ham học_hỏi mong_muốn tiến chủ_động nâng cao_trình_độ sáng_tạo kỹ_năng giao_tiếp xử_lý tình_huống giúp nắm_bắt cơ_hội mô_tả công_việc xây_dựng ứng_dụng di_động dự_án quản_trị nội_bộ nhân_viên kho hàng kế_toán vận_tải nhập_khẩu phần_mềm liên_quan ngành_nghề giao_nhận vận_tải duy_trì ứng_dụng di_động công_ty ios android reactnative hợp_tác thành_viên backend product designer qa qc đảm_bảo chất_lượng sản_phẩm phân_tích yêu_cầu thiết_kế phát_triển chức_năng dựa yêu_cầu sản_phẩm tiếp_tục tối_ưu_hóa sản_phẩm quy_trình phát_triển xác_định khắc_phục vấn_đề cải_thiện ổn_định khả_dụng sản_phẩm thực_hiện công_việc liên_quan chỉ_đạo trênđịa tòa hải_âu trường sơn phường tân bình tp hcmthời</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>tốt_nghiệp đại_học cao_đẳng chuyên nghành công_nghệ thông tincó kinh_nghiệm flutter tối_thiểu kinh_nghiệm androidcó kinh_nghiệm handle restful api back end third party librariescó kiến_thức oop data structures algorithm tối_ưu_hóa hiệu_suất ứng_dụng flutterkĩ năng giải_quyết vấn_đề việcchủ động giao_tiếp giao_lưu members việcthành thạo hệ_thống quản_lý source code gitlập ứng_dụng di_động flutterandroid kotlin đội dự_án phân_bổ công_việc pmtlphát triển chuyên_sâu công_nghệ mobile front chungtối ưu trải nghiệm tập_trung tốc_độ xử_lý mobiletìm framework ứng_dụng app phát triểntuân thủ quy_trình task giao leadermobile developer flutter</t>
+          <t>mobile flutter mobile flutter mobile flutter tốt_nghiệp đại_học cao_đẳng chuyên nghành công_nghệ thông tincó kinh_nghiệm flutter tối_thiểu kinh_nghiệm androidcó kinh_nghiệm handle restful api back end third party librariescó kiến_thức oop data structures algorithm tối_ưu_hóa hiệu_suất ứng_dụng flutterkĩ năng giải_quyết vấn_đề việcchủ động giao_tiếp giao_lưu members việcthành thạo hệ_thống quản_lý source code git lập_trình ứng_dụng di_động flutterandroid kotlin đội dự_án phân_bổ công_việc pmtlphát triển chuyên_sâu công_nghệ mobile front chungtối ưu trải nghiệm tập_trung tốc_độ xử_lý mobiletìm framework ứng_dụng app phát triểntuân thủ quy_trình task giao leader</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>kiến_thức chuyên_ngành lập_trình công_nghệ thông tinkhoa học máy tínham ngôn_ngữ javascripttypescript nodejs kinh_nghiệm làm_việc mongodb google cloud firebase authentication realtime database functions ngoài_ra kiến_thức lập_trình hướng đối_tượng oop javac lợi thếnắm vững kiến_thức lập_trình cấu_trúc dữ_liệu giải thuậtưu ứng_viên kinh_nghiệm xây_dựng ứng_dụng backend serverkỹ năng research xử_lý vấn_đề khả_năng thích_ứng công_việc kỹ_thuật mớikhả năng làm_việc độc_lập làm_việc nhómtinh thần_học_hỏi nâng cao_trình_độ bản_thân tinh_thần trách_nhiệm việcxây dựng phát_triển tính_năng ứng_dụng backend serverdebug khắc_phục sự_cố ứng dụngnghiên cứu công_nghệ kỹ_thuật thực_hiện nhiệm_vụ giaonodejs developer</t>
+          <t>nodejs nodejs nodejs kiến_thức chuyên_ngành lập_trình công_nghệ thông tinkhoa học máy tínham ngôn_ngữ javascripttypescript nodejs kinh_nghiệm làm_việc mongodb google cloud firebase authentication realtime database functions ngoài_ra kiến_thức lập_trình hướng đối_tượng oop javac lợi thếnắm vững kiến_thức lập_trình cấu_trúc dữ_liệu giải thuậtưu ứng_viên kinh_nghiệm xây_dựng ứng_dụng backend serverkỹ năng research xử_lý vấn_đề khả_năng thích_ứng công_việc kỹ_thuật mớikhả năng làm_việc độc_lập làm_việc nhómtinh thần_học_hỏi nâng cao_trình_độ bản_thân tinh_thần trách_nhiệm công_việc xây_dựng phát_triển tính_năng ứng_dụng backend serverdebug khắc_phục sự_cố ứng dụngnghiên cứu công_nghệ kỹ_thuật thực_hiện nhiệm_vụ giao</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>yêu_cầu kinh_nghiệm thực_tế dự áncó hiểu_biết nodejs server side expressjs nestjs typeorm mongoose socket io kinh_nghiệm làm_việc rest apikinh nghiệm làm_việc graphqlhiểu modern javascript typescriptcó kinh_nghiệm mongodb database postgresql rediskhả năng teamwork tốtkinh nghiệm làm_việc chat platform sendbird lợi thếhiểu mô_hình agilescrumkinh nghiệm thiết_kế soa microserviceshiểu docker gcp lợi thếkinh nghiệm webpackthực dự_án mô_hình microservices trách_nhiệm viết api cần_thiết hệ_thống sử_dụng nodejsthu thập xử_lí yêu_cầu thiết_kế kĩ thuậttham gia quá_trình phân_tích thiết_kế hệ thốngnghiên cứu áp_dụng công_nghệ tối_ưu_hóa hiệu_quả phát_triển sản phẩmđảm sản_phẩm chạy nghiệp_vụ tốc_độ xử_lý tối_ưu lớnfresher back end developer nodejs</t>
+          <t>fresher back end nodejs fresher back end nodejs fresher back end nodejs yêu_cầu kinh_nghiệm thực_tế dự áncó hiểu_biết nodejs server side expressjs nestjs typeorm mongoose socket io kinh_nghiệm làm_việc rest apikinh nghiệm làm_việc graphqlhiểu modern javascript typescriptcó kinh_nghiệm mongodb database postgresql rediskhả năng teamwork tốtkinh nghiệm làm_việc chat platform sendbird lợi thếhiểu mô_hình agilescrumkinh nghiệm thiết_kế soa microserviceshiểu docker gcp lợi thếkinh nghiệm webpack thực_hiện dự_án mô_hình microservices trách_nhiệm viết api cần_thiết hệ_thống sử_dụng nodejsthu thập xử_lí yêu_cầu thiết_kế kĩ thuậttham gia quá_trình phân_tích thiết_kế hệ thốngnghiên cứu áp_dụng công_nghệ tối_ưu_hóa hiệu_quả phát_triển sản phẩmđảm sản_phẩm chạy nghiệp_vụ tốc_độ xử_lý tối_ưu</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ít_nhất kinh_nghiệm làm_việc nodejscó kinh_nghiệm làm_việc expressnắm vững thành_thạo javascriptcó kinh_nghiệm phát_triển api sử_dụng rest api graphqlthành thạo sử_dụng git quản_lý mã nguồncó hiểu_biết xác_thực phân_quyền hệ_thống máy_chủ môi trườngtư nắm_bắt công_nghệ nhanhphát triển service platform hệ_thống hỗ_trợ tuyển_dụng nhân_sự khách_hàng nhậtcung solution hỗ_trợ doanh_nghiệp bài_toán quản_trị sựthực công_việc phân cônglập viên nodejs đà_nẵng up to</t>
+          <t>nodejs đà_nẵng up to nodejs đà_nẵng up to nodejs đà_nẵng up to ít_nhất kinh_nghiệm làm_việc nodejscó kinh_nghiệm làm_việc expressnắm vững thành_thạo javascriptcó kinh_nghiệm phát_triển api sử_dụng rest api graphqlthành thạo sử_dụng git quản_lý mã nguồncó hiểu_biết xác_thực phân_quyền hệ_thống máy_chủ môi trườngtư nắm_bắt công_nghệ phát_triển service platform hệ_thống hỗ_trợ tuyển_dụng nhân_sự khách_hàng nhậtcung solution hỗ_trợ doanh_nghiệp bài_toán quản_trị sựthực công_việc phân_công</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>kinh_nghiệm làm_việc vị_trí backend developer sử_dụng nodejssử_dụng thành_thạo ngôn_ngữ nodejs typescript kinh_nghiệm làm_việc nestjs frameworknắm vững git git flowsử_dụng thành_thạo ít_nhất hệ quản_trị cơ_sở dữ_liệu mysql mongodb rediscó kinh_nghiệm viết api restful viết tài_liệu api sử_dụng swaggerhiểu nắm design pattern singleton fluent interface repositorycó kinh_nghiệm unit testsđã sử_dụng aws lợi thếcó khả_năng xây_dựng hệ_thống thời_gian caoưu ứng_viên kinh_nghiệm lead teamcó khả_năng làm_việc độc_lập áp_lực việccùng đội_ngũ senior team leader phát_triển hệ_thống ccu concurrent users chịu_tải caotham gia công_đoạn phát_triển phần_mềm tìm_hiểu yêu_cầu phân_tích_thiết kếđược tham_gia nghiên_cứu phát_triển sản_phẩm web sử_dụng ngôn ngữcông nghệ nodejsnestjs javascriptvuejs nuxtjs reactjs nextjs golang mysql mongodb memcached redis docker kubernetes socketio elasticsearchlàm phối_hợp công_việc phân_công công_việc team leadernodejs developer signing bonus lương</t>
+          <t>nodejs signing bonus lương nodejs signing bonus lương nodejs signing bonus lương kinh_nghiệm làm_việc vị_trí backend sử_dụng nodejssử_dụng thành_thạo ngôn_ngữ nodejs typescript kinh_nghiệm làm_việc nestjs frameworknắm vững git git flowsử_dụng thành_thạo ít_nhất hệ quản_trị cơ_sở dữ_liệu mysql mongodb rediscó kinh_nghiệm viết api restful viết tài_liệu api sử_dụng swaggerhiểu nắm design pattern singleton fluent interface repositorycó kinh_nghiệm unit testsđã sử_dụng aws lợi thếcó khả_năng xây_dựng hệ_thống thời_gian caoưu ứng_viên kinh_nghiệm lead teamcó khả_năng làm_việc độc_lập áp_lực công_việc đội_ngũ senior team leader phát_triển hệ_thống ccu concurrent users chịu_tải caotham gia công_đoạn phát_triển phần_mềm tìm_hiểu yêu_cầu phân_tích_thiết kếđược tham_gia nghiên_cứu phát_triển sản_phẩm web sử_dụng ngôn ngữcông nghệ nodejsnestjs javascriptvuejs nuxtjs reactjs nextjs golang mysql mongodb memcached redis docker kubernetes socketio elasticsearchlàm phối_hợp công_việc phân_công công_việc team leader</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>kinh_nghiệm sử_dụng php mysql xây_dựng websitecó kinh_nghiệm làm_việc framework laravel yii codeigniterhiểu kiến_thức oop mvc php coding standards conventioncó kinh_nghiệm làm_việc cơ_sở dữ_liệu ít_nhất mysql postgresql mongodb kiến_thức htmlcssjs jquery bootstrapsử_dụng thành_thạo gitcó lợi_thế php framework shopify prestashop wordpress ecommerce open source js framework reactjs vuejsyêu kháccó trách_nhiệm công_việc khả_năng làm_việc độc_lập làm_việc nhómalways think about what can be done rather finding the reasons why cannot be done có_thể thực_hiện lý_do tại_sao không_thể thực_hiện có_thể đọc viết giao_tiếp tiếng anhsẵn sàng tham_gia hoạt_động team building tiệc phim du_lịch chi_tiết vấntham gia toàn_bộ quá_trình phát_triển sản_phẩm phần_mềm thiết_kế website phát_triển api ứng dụngxử xuyên suốt quá_trình phát_triển sản_phẩm dự_đoán sửa_chữa vấn_đề phảiquản hiệu_năng load testing review code đóng_góp cải_thiện hệ_thống kỹ thuậtngôn ngữ lập_trình php framework sử_dụng laravel yii code ignitertham gia khóa huấn_luyện nội_bộ công_ty kỹ_thuật tiếng anhphp web developer kinh_nghiệm</t>
+          <t>php web kinh_nghiệm php web kinh_nghiệm php web kinh_nghiệm kinh_nghiệm sử_dụng php mysql xây_dựng websitecó kinh_nghiệm làm_việc framework laravel yii codeigniterhiểu kiến_thức oop mvc php coding standards conventioncó kinh_nghiệm làm_việc cơ_sở dữ_liệu ít_nhất mysql postgresql mongodb sử_dụng thành_thạo git lợi_thế php framework shopify prestashop wordpress ecommerce open source trách_nhiệm công_việc khả_năng làm_việc độc_lập làm_việc nhómalways think about what can be done rather finding the reasons why cannot be done có_thể thực_hiện lý_do tại_sao không_thể thực_hiện có_thể đọc viết giao_tiếp tiếng anhsẵn sàng tham_gia hoạt_động team building tiệc phim du_lịch chi_tiết phỏng_vấn tham_gia toàn_bộ quá_trình phát_triển sản_phẩm phần_mềm thiết_kế website phát_triển api ứng dụngxử xuyên suốt quá_trình phát_triển sản_phẩm dự_đoán sửa_chữa vấn_đề phảiquản hiệu_năng load testing review code đóng_góp cải_thiện hệ_thống kỹ thuậtngôn ngữ lập_trình php framework sử_dụng laravel yii code ignitertham gia khóa huấn_luyện nội_bộ công_ty kỹ_thuật tiếng</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>kinh_nghiệm làm_việc reactjs kinh_nghiệm web services giỏi lập_trình chức_năng mẫu thiết_kế làm_việc html css javascript json tiếng đọc chú_trọng chi_tiết tư_duy phục_vụ khách_hàng chủ_động tích_cực khả_năng làm_việc độc_lập vàtrong kiến_thức lĩnh_vực giáo_dục cộng thực_hiện phương_pháp scrum agile phát_triển ứng_dụng web bao_gồm trang_web tương táchệ thống quản_lý khách_hàng chính_phủ việt nam làm_việc reactjs reduxsaga html css javascript môi_trường máy_chủ firebase nodejs vps có_thể tùy_chọn chỉ_định làm_việc ứng_dụng thiết_bị di_độngdự án quan_tâm react native làm_việc laptop nhânfrontend developer reactjs</t>
+          <t>frontend reactjs frontend reactjs frontend reactjs kinh_nghiệm làm_việc reactjs kinh_nghiệm web services giỏi lập_trình chức_năng mẫu thiết_kế làm_việc html css javascript json tiếng đọc chú_trọng chi_tiết tư_duy phục_vụ khách_hàng chủ_động tích_cực khả_năng làm_việc độc_lập vàtrong kiến_thức lĩnh_vực giáo_dục cộng thực_hiện phương_pháp scrum agile phát_triển ứng_dụng web bao_gồm trang_web tương táchệ thống quản_lý khách_hàng chính_phủ việt nam làm_việc reactjs reduxsaga html css javascript môi_trường máy_chủ firebase nodejs vps có_thể tùy_chọn chỉ_định làm_việc ứng_dụng thiết_bị di_độngdự án quan_tâm react native làm_việc laptop cá_nhân</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>kinh_nghiệm phát_triển ứng_dụng web ít_nhất kinh_nghiệm reactjs nextjs cam_kết chất_lượng tiếp_cận công_việc kỹ_lưỡng làm_việc tin_cậy năng_động nhiệt_tình khả_năng quản_lý điều_phối dự_án lương thoải_mái kiến thức đam_mê công_nghệ mong_muốn nâng năng_lực xem_xét yêu_cầu nghiệp_vụ làm_việc thành_viên thực_hiện phân_tích yêu_cầu kỹ_thuật viết mã rõ_ràng sạch_sẽ khả_năng kiểm_soát lỗi phối_hợp bộ_phận lỗi có_thể khắc_phục nhanh_chóng đóng_góp_ý_kiến ứng_dụng sử_dụng phát_triển bảo_trì ứng_dụng reactjs nextjs html js css đảm_bảo thời_gian chất_lượng sản phẩmjunior reactjs</t>
+          <t>junior reactjs junior reactjs junior reactjs kinh_nghiệm phát_triển ứng_dụng web ít_nhất kinh_nghiệm reactjs nextjs cam_kết chất_lượng tiếp_cận công_việc kỹ_lưỡng làm_việc tin_cậy năng_động nhiệt_tình khả_năng quản_lý điều_phối dự_án lương thoải_mái kiến thức đam_mê công_nghệ mong_muốn nâng năng_lực xem_xét yêu_cầu nghiệp_vụ làm_việc thành_viên thực_hiện phân_tích yêu_cầu kỹ_thuật viết mã rõ_ràng sạch_sẽ khả_năng kiểm_soát lỗi phối_hợp bộ_phận lỗi có_thể khắc_phục nhanh_chóng đóng_góp_ý_kiến ứng_dụng sử_dụng phát_triển bảo_trì ứng_dụng reactjs nextjs html js css đảm_bảo thời_gian chất_lượng sản_phẩm</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ít_nhất phát_triển ứng_dụng nền_tảng android thành_thạo java kotlin kinh_nghiệm mẫu kiến_trúc ứng_dụng mvcmvpmvvm kinh_nghiệm kết_nối api google maps gcmfcm kinh_nghiệm thiết_kế ux ui application kiến_thức thiết_kế oop kiến_thức mẫu thiết_kế lợi_thế khả_năng làm_việc độc_lập nhómhợp tác chặt_chẽ bộ_phận liên_quan phát_triển ứng_dụng payoo nền_tảng android hỗ_trợ đối_tác tích_hợp sdk dự_án thúc_đẩy tính_năng cần_thiết phát_triển sản_phẩm phát_triển ý_tưởng ứng_dụng payoo tái kiến_trúc ứng_dụng payoo nền_tảng android duy_trì cải_thiện hiệu_suất sửa lỗi ứng_dụng tham_gia thảo_luận thết kế ứng_dụng phát_triển codeunitintergrationui tài_liệu thực_hiện dự_án thảo_luận quản_lý trực_tiếp ban giám đốcandroid developer</t>
+          <t>android android android ít_nhất phát_triển ứng_dụng nền_tảng android thành_thạo java kotlin kinh_nghiệm mẫu kiến_trúc ứng_dụng mvcmvpmvvm kinh_nghiệm kết_nối api google maps gcmfcm kinh_nghiệm thiết_kế ux ui application kiến_thức thiết_kế oop kiến_thức mẫu thiết_kế lợi_thế khả_năng làm_việc độc_lập hợp_tác chặt_chẽ bộ_phận liên_quan phát_triển ứng_dụng payoo nền_tảng android hỗ_trợ đối_tác tích_hợp sdk dự_án thúc_đẩy tính_năng cần_thiết phát_triển sản_phẩm phát_triển ý_tưởng ứng_dụng payoo tái kiến_trúc ứng_dụng payoo nền_tảng android duy_trì cải_thiện hiệu_suất sửa lỗi ứng_dụng tham_gia thảo_luận thết kế ứng_dụng phát_triển codeunitintergrationui tài_liệu thực_hiện dự_án thảo_luận quản_lý trực_tiếp ban giám_đốc</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>kinh_nghiệm phát_triển ứng_dụng di_động ngôn_ngữ swift object c ios java android flutter lợi_thế hiểu_biết kỹ_năng cơ_bản lập_trình hướng đối_tượng sử_dụng tool quản_lý source git svn khả_năng tự_quản_lý trách_nhiệm có_thể giao_tiếp làm_việc tham_gia phát_triển ứng_dụng mobile ios android hằng native react native flutter tập_trung hiệu_suất chất_lượng ứng_dụng hoàn_thiện trải nghiệm ux xây_dựng tối_ưu_hóa thông_số kỹ_thuật tiêu_chuẩn quá_trình phát_triển cải_thiện quy_trình phát_triển nghiên_cứu phân_tích giải_pháp kỹ_thuật đánh_giá giới_thiệu thúc_đẩy công_nghệ giải_quyết vấn_đề kỹ_thuật thực_hiện cụ_thể tham_gia xây_dựng nền_tảng có_thể đảm_trách vị_trí head of mobile team kỹ_năng kinh nghiệmlập viên mobile ios android</t>
+          <t>mobile ios android mobile ios android mobile ios android kinh_nghiệm phát_triển ứng_dụng di_động ngôn_ngữ swift object c ios java android flutter lợi_thế hiểu_biết kỹ_năng cơ_bản lập_trình hướng đối_tượng sử_dụng tool quản_lý source git svn khả_năng tự_quản_lý trách_nhiệm có_thể giao_tiếp làm_việc tham_gia phát_triển ứng_dụng mobile ios android hằng native react native flutter tập_trung hiệu_suất chất_lượng ứng_dụng hoàn_thiện trải nghiệm ux xây_dựng tối_ưu_hóa thông_số kỹ_thuật tiêu_chuẩn quá_trình phát_triển cải_thiện quy_trình phát_triển nghiên_cứu phân_tích giải_pháp kỹ_thuật đánh_giá giới_thiệu thúc_đẩy công_nghệ giải_quyết vấn_đề kỹ_thuật thực_hiện cụ_thể tham_gia xây_dựng nền_tảng có_thể đảm_trách vị_trí head of mobile team kỹ_năng kinh_nghiệm</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ít_nhất kinh_nghiệm phát_triển ios chuyên_nghiệp sử_dụng thành_thạo objectivec swift ios sdk rest api kinh_nghiệm ios framework core data core animation vv kinh_nghiệm lưu_trữ ngoại_tuyến phân_luồng điều_chỉnh hiệu_suất quen_thuộc api restful kết_nối ứng_dụng ios dịch_vụ backend kiến_thức công_nghệ web tiêu_chuẩn uiux hiểu_biết nguyên_tắc thiết_kế hướng_dẫn giao_diện apple kiến_thức phát_triển agilescrumkiểm định_hướng kiến_thức phát_triển backend kỹ_năng giao_tiếp tiếng thiết_kế xây_dựng ứng_dụng cao_cấp nền_tảng ios tương_tác khách_hàng cộng_tác đa chức_năng xác_định thiết_kế cung_cấp tính_năng wireframes thiết_kế phát_triển thử_nghiệm triển_khai ứng_dụng ios tiếp_tục sản_xuất phiên_bản ứng_dụng thiết_kế giải_pháp một_cách độc_lập mã kiểm_tra đơn_vị độ bền bao_gồm trường_hợp khả_năng sử_dụng độ tin_cậy làm_việc sửa lỗi cải_thiện hiệu_suất ứng_dụng hoạt_động hiệu_quả môi_trường lập_trình nhịp_độ thời_hạn hợp_tác lặp_đi lặp_lạimiddle ios developer</t>
+          <t>middle ios middle ios middle ios ít_nhất kinh_nghiệm phát_triển ios chuyên_nghiệp sử_dụng thành_thạo objectivec swift ios sdk rest api kinh_nghiệm ios framework core data core animation vv kinh_nghiệm lưu_trữ ngoại_tuyến phân_luồng điều_chỉnh hiệu_suất quen_thuộc api restful kết_nối ứng_dụng ios dịch_vụ backend kiến_thức công_nghệ web tiêu_chuẩn uiux hiểu_biết nguyên_tắc thiết_kế hướng_dẫn giao_diện apple kiến_thức phát_triển agilescrumkiểm định_hướng kiến_thức phát_triển backend kỹ_năng giao_tiếp tiếng thiết_kế xây_dựng ứng_dụng cao_cấp nền_tảng ios tương_tác khách_hàng cộng_tác đa chức_năng xác_định thiết_kế cung_cấp tính_năng wireframes thiết_kế phát_triển thử_nghiệm triển_khai ứng_dụng ios tiếp_tục sản_xuất phiên_bản ứng_dụng thiết_kế giải_pháp một_cách độc_lập mã kiểm_tra đơn_vị độ bền bao_gồm trường_hợp khả_năng sử_dụng độ tin_cậy làm_việc sửa lỗi cải_thiện hiệu_suất ứng_dụng hoạt_động hiệu_quả môi_trường lập_trình nhịp_độ thời_hạn hợp_tác lặp_đi lặp_lại</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>chăm_sóc giúp sinh_viên thay_đổi đường sự_nghiệp họkĩ năng giao_tiếp nói_chuyện sinh_viên hàng đánh_giá có_thể truyền_cảm_hứng hành_trình mớitính kiên_nhẫn học có_thể mới_mẻ đối_với họcó kinh_nghiệm làm_việc dữ_liệu ds ưu tiêncó kinh_nghiệm sqlbigquery python pandas seaborn matplotlibquen công_cụ trực_quan_hóa dữ_liệu tableau ưu_tiên powerbi google data studioquen học máy truyền_thống hồi tuyến tínhlogistic knn kmeans địnhai engineer</t>
+          <t>engineer engineer engineer chăm_sóc giúp sinh_viên thay_đổi đường sự_nghiệp họkĩ năng giao_tiếp nói_chuyện sinh_viên hàng đánh_giá có_thể truyền_cảm_hứng hành_trình mớitính kiên_nhẫn học có_thể mới_mẻ đối_với kinh_nghiệm làm_việc dữ_liệu ds ưu tiêncó kinh_nghiệm sqlbigquery python pandas seaborn matplotlibquen công_cụ trực_quan_hóa dữ_liệu tableau ưu_tiên powerbi google data studioquen học máy truyền_thống hồi tuyến tínhlogistic knn kmeans quyết_định</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ít_nhất kinh_nghiệm lĩnh_vực machine learning deep learning tham_gia ít_nhất project triển_khai thành_công sử_dụng sử_dụng thành_thạo ngôn_ngữ python go cc thành_thạo ít_nhất framework tensorflow keras pytorch sử_dụng thư_viện matplotlib numpy pandas ưu_tiên kinh_nghiệm sử_dụng opencv đọc tiếng kỹ_năng làm_việc tham_gia triển_khai dịch_vụ trí_tuệ nhân_tạo lĩnh_vực thị_giác máy_tính xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên nghiên_cứu áp_dụng công_nghệ triển_khai bài_toán ứng_dụng ekyc chatbot scanextraction thông_tin giải_quyết bài_toán machine learning deep learning khácai engineer</t>
+          <t>engineer engineer engineer ít_nhất kinh_nghiệm lĩnh_vực machine learning deep learning tham_gia ít_nhất project triển_khai thành_công sử_dụng sử_dụng thành_thạo ngôn_ngữ python go cc thành_thạo ít_nhất framework tensorflow keras pytorch sử_dụng thư_viện matplotlib numpy pandas ưu_tiên kinh_nghiệm sử_dụng opencv đọc tiếng kỹ_năng làm_việc tham_gia triển_khai dịch_vụ trí_tuệ nhân_tạo lĩnh_vực thị_giác máy_tính xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên nghiên_cứu áp_dụng công_nghệ triển_khai bài_toán ứng_dụng ekyc chatbot scanextraction thông_tin giải_quyết bài_toán machine learning deep learning</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>has years of experience working as an data developer scientist advance sql knowledge and experience working with rdbms as well as working farmiliarity with variety of databases and database engine experience building and optimizing data pipeline architectures and datasets in cloud build processes supporting data transformation data structures metadata dependency and workload management experience in data mining understanding of ml and operation research knowledge of sql and python it s plus if you known nodejs or javascript experience using bi tools and data frameworks good at math skillsdata warehouse data mining data pipeline google cloud platfarm pythontạo duy_trì kiến trúc đường_ống liệuxây dựng cơ_sở hạ_tầng cần_thiết trích chuyển_đổi tải dữ_liệu dữ_liệu công_nghệ sql gdpgiữ dữ_liệu phân_tách bảo_mật xuyên biên_giới quốc_gia thông_qua trung_tâm dữ_liệu gdpxây dựng công_cụ phân_tích tận_dụng đường truyền dữ_liệu cung_cấp sâu_sắc có_thể hành_động hiệu_quả hoạt_động chỉ_số_hiệu_suất kinh_doanh quan_trọng khácthực thu_thập tiền xử_lý phân_tích liệuáp_dụng ngôn_ngữ kỹ_thuật xây_dựng mô_hình giải_quyết vấn_đề kinh doanhxác dữ_liệu giá_trị tự_động hóa quy_trình thu thậpphân tích thông_tin khám_phá xu_hướng mô hìnhxây dựng mô_hình dự_đoán thuật_toán mltiến hành tiền xử_lý dữ_liệu cấu_trúc phi_cấu trúckết mô_hình thông_qua mô_hình hợpdata developer scientist</t>
+          <t>data scientist data scientist data scientist has years of experience working as an data scientist advance sql knowledge and experience working with rdbms as well as working farmiliarity with variety of databases and database engine experience building and optimizing data pipeline architectures and datasets in cloud build processes supporting data transformation data structures metadata dependency and workload management experience in data mining understanding of ml and operation research knowledge of sql and python it s plus if you known nodejs or javascript experience using bi tools and data frameworks good at math skillsdata warehouse data mining data pipeline google cloud platfarm python duy_trì kiến trúc đường_ống liệuxây dựng cơ_sở hạ_tầng cần_thiết trích chuyển_đổi tải dữ_liệu dữ_liệu công_nghệ sql gdpgiữ dữ_liệu phân_tách bảo_mật xuyên biên_giới quốc_gia thông_qua trung_tâm dữ_liệu gdpxây dựng công_cụ phân_tích tận_dụng đường truyền dữ_liệu cung_cấp sâu_sắc có_thể hành_động hiệu_quả hoạt_động chỉ_số_hiệu_suất kinh_doanh quan_trọng khácthực thu_thập tiền xử_lý phân_tích liệuáp_dụng ngôn_ngữ kỹ_thuật xây_dựng mô_hình giải_quyết vấn_đề kinh doanhxác dữ_liệu giá_trị tự_động hóa quy_trình thu thậpphân tích thông_tin khám_phá xu_hướng mô hìnhxây dựng mô_hình dự_đoán thuật_toán mltiến hành tiền xử_lý dữ_liệu cấu_trúc phi_cấu trúckết mô_hình thông_qua mô_hình tập_hợp</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>nam tốt_nghiệp chuyên_ngành cơ_điện_tử công_nghệ thông_tin toán ứng_dụng khoa_học máy tínhhoặc chuyên_ngành liên_quan ngoại_ngữ tiếng đọc viết tiếng nhật ưu_tiên khả_năng lập_trình ngôn_ngữ c python nền_tảng cơ_bản xử_lý ảnh thị_giác máy_tính thuật_toán_học máy tiếp_xúc thư viên open cvtensorflowpytorch kiến_thức mô_hình thần_kinh nhân_tạo yolo autoencoder lợi_thế hiểu_biết plc lập_trình giao_tiếp máy_tính plc visual studio community pycharm community nhanh_nhẹn trung_thực tinh_thần trách_nhiệm hợp_tác team works giao_tiếp tự_tin cởi_mở áp_dụng thuật_toán xử_lý ảnh học máy học sâu bài_toán kiểm_tra ngoại sản_phẩm phân_tích hiệu_quả thuật_toán cải_tiến hệ thốngkỹ sư bộ_phận nghiên_cứu phát_triển</t>
+          <t>kỹ_sư bộ_phận nghiên_cứu phát_triển kỹ_sư bộ_phận nghiên_cứu phát_triển kỹ_sư bộ_phận nghiên_cứu phát_triển nam tốt_nghiệp chuyên_ngành cơ_điện_tử công_nghệ thông_tin toán ứng_dụng khoa_học máy tínhhoặc chuyên_ngành liên_quan ngoại_ngữ tiếng đọc viết tiếng nhật ưu_tiên khả_năng lập_trình ngôn_ngữ c python nền_tảng cơ_bản xử_lý ảnh thị_giác máy_tính thuật_toán_học máy tiếp_xúc thư viên open cvtensorflowpytorch kiến_thức mô_hình thần_kinh nhân_tạo yolo autoencoder lợi_thế hiểu_biết plc lập_trình giao_tiếp máy_tính plc visual studio community pycharm community nhanh_nhẹn trung_thực tinh_thần trách_nhiệm hợp_tác team works giao_tiếp tự_tin cởi_mở áp_dụng thuật_toán xử_lý ảnh học máy học sâu bài_toán kiểm_tra ngoại sản_phẩm phân_tích hiệu_quả thuật_toán cải_tiến hệ_thống</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>cử_nhân khoa_học máy_tính kỹ_thuật lĩnh_vực liên_quan học máy toán_học thống_kê kinh_nghiệm thiết_lập xây_dựng kiến trúc dữ_liệu đường_ống triển_khai mô_hình môi_trường rõ_ràng kinh_nghiệm áp_dụng kỹ_thuật máy học giải_quyết vấn_đề kinh_doanh phức_tạp thông_số ảnh_hưởng hiệu_suất kinh_nghiệm phát_triển kế_hoạch thử_nghiệm phân_tích quy_trình mô_hình_hóa dữ_liệu sử_dụng đường cơ_sở vững_chắc khả_năng xác_định chính_xác quan_hệ nhân_quả thông_thạo thao_tác dữ_liệu dựa sql kinh_nghiệm chuyên_sâu sử_dụng ngôn_ngữ kịch_bản r python phân_tích dữ_liệu phát_triển mô_hình thống_kê phân_tích khám_phá hiểu_biết sâu_sắc phân khúc giúp thúc_đẩy doanh_nghiệp phát_triển khám_phá lĩnh_vực cơ_hội áp_dụng phương_pháp học máy phát_triển phát_triển thử_nghiệm cải_tiến chạy thử_nghiệm tính_toán tinh_chỉnh tham_số viết mã python r scala sql vv thao_tác phân_tích dữ_liệu data scientist</t>
+          <t>data scientist data scientist data scientist cử_nhân khoa_học máy_tính kỹ_thuật lĩnh_vực liên_quan học máy toán_học thống_kê kinh_nghiệm thiết_lập xây_dựng kiến trúc dữ_liệu đường_ống triển_khai mô_hình môi_trường rõ_ràng kinh_nghiệm áp_dụng kỹ_thuật máy học giải_quyết vấn_đề kinh_doanh phức_tạp thông_số ảnh_hưởng hiệu_suất kinh_nghiệm phát_triển kế_hoạch thử_nghiệm phân_tích quy_trình mô_hình_hóa dữ_liệu sử_dụng đường cơ_sở vững_chắc khả_năng xác_định chính_xác quan_hệ nhân_quả thông_thạo thao_tác dữ_liệu dựa sql kinh_nghiệm chuyên_sâu sử_dụng ngôn_ngữ kịch_bản r python phân_tích dữ_liệu phát_triển mô_hình thống_kê phân_tích khám_phá hiểu_biết sâu_sắc phân khúc giúp thúc_đẩy doanh_nghiệp phát_triển khám_phá lĩnh_vực cơ_hội áp_dụng phương_pháp học máy phát_triển phát_triển thử_nghiệm cải_tiến chạy thử_nghiệm tính_toán tinh_chỉnh tham_số viết mã python r scala sql vv thao_tác phân_tích dữ_liệu</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>kiến_thức căn_bản data mining ml kiến_thức kinh_nghiệm sử_dụng spark etl with scala python hadoop ecosys kiến_thức kinh_nghiệm tối_ưu luồng xử_lý data landing zone working zone gold zone kỹ_thuật thiết_kế job tối_ưu dữ_liệu kỹ_thuật orchestration luồng job kiến_thức kinh_nghiệm db sql db oracle netezza mysql postgresql mariadb amazon aurona nosql db elasticsearch apache cassandra apache hbase google bigtale apache pinot graph db tigergraph amazon nepture memory db redis memcached kiến_thức kinh_nghiệm machine learning thoery keras tensorflow pytorch scikitlearn numpy pandas zeppline jupiter hub tham_gia quy_trình xây_dựng bảo_trì model elt data cleaning data analytic data building model testing model sharing with business for feedback deploying model visualization maintenance model educating business and teamschuyên giachuyên viên cao_cấp data engineer</t>
+          <t>chuyên giachuyên viên cao_cấp data engineer chuyên giachuyên viên cao_cấp data engineer chuyên giachuyên viên cao_cấp data engineer kiến_thức căn_bản data mining ml kiến_thức kinh_nghiệm sử_dụng spark etl with scala python hadoop ecosys kiến_thức kinh_nghiệm tối_ưu luồng xử_lý data landing zone working zone gold zone kỹ_thuật thiết_kế job tối_ưu dữ_liệu kỹ_thuật orchestration luồng job kiến_thức kinh_nghiệm db sql db oracle netezza mysql postgresql mariadb amazon aurona nosql db elasticsearch apache cassandra apache hbase google bigtale apache pinot graph db tigergraph amazon nepture memory db redis memcached kiến_thức kinh_nghiệm machine learning thoery keras tensorflow pytorch scikitlearn numpy pandas zeppline jupiter hub tham_gia quy_trình xây_dựng bảo_trì model elt data cleaning data analytic data building model testing model sharing with business for feedback deploying model visualization maintenance model educating business and teams</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>kinh_nghiệm làm_việc dịch_vụ web restful kiến_thức kinh_nghiệm rdbms sqlnosql kinh_nghiệm lập_trình ít_nhất javascript nodejs java spring c kinh_nghiệm môi_trường dựa linux khả_năng học_hỏi kinh_nghiệm sử_dụng công_cụ cộng_tác jira confluence kinh_nghiệm javamysqlelk cập_nhật xu_hướng thiết_kế công_nghệ cởi_mở thảo_luận thiết_kế đánh_giá mã kinh_nghiệm phát_triển dựa đám mây aws gcp kinh_nghiệm kiểm_soát phiên_bản git svn etc phát_triển dịch_vụ nền_tảng công_cụ vận_hành phát_hành game phát_triển restful api dựa nền_tảng liên_kết phát_triển phân_tích dữ_liệu đa_dạng xử_lý phân_phối dữ_liệu phát_triển dịch_vụ quản_lý thông_tin quản_lý_tài_khoản theo_dõi báo_cáo thống_kê cần_thiết phát_triển máy_chủ phụ_trợ giao_diện_tích_hợp nền_tảng cổng api hàng đợi nhắn phân_tán vv phát_triển hệ_thống xử_lý thời_gian game big databackend developer nodejs java c</t>
+          <t>backend nodejs java c backend nodejs java c backend nodejs java c kinh_nghiệm làm_việc dịch_vụ web restful kiến_thức kinh_nghiệm rdbms sqlnosql kinh_nghiệm lập_trình ít_nhất javascript nodejs java spring c kinh_nghiệm môi_trường dựa linux khả_năng học_hỏi kinh_nghiệm sử_dụng công_cụ cộng_tác jira confluence kinh_nghiệm javamysqlelk cập_nhật xu_hướng thiết_kế công_nghệ cởi_mở thảo_luận thiết_kế đánh_giá mã kinh_nghiệm phát_triển dựa đám mây aws gcp kinh_nghiệm kiểm_soát phiên_bản git svn etc phát_triển dịch_vụ nền_tảng công_cụ vận_hành phát_hành game phát_triển restful api dựa nền_tảng liên_kết phát_triển phân_tích dữ_liệu đa_dạng xử_lý phân_phối dữ_liệu phát_triển dịch_vụ quản_lý thông_tin quản_lý_tài_khoản theo_dõi báo_cáo thống_kê cần_thiết phát_triển máy_chủ phụ_trợ giao_diện_tích_hợp nền_tảng cổng api hàng đợi nhắn phân_tán vv phát_triển hệ_thống xử_lý thời_gian game big data</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>kinh_nghiệm lập_trình unity kinh_nghiệm code dự_án game thẻ tướng game nhập_vai game kiến_thức chuyên_sâu lập_trình c java am_hiểu khía_cạnh phát_triển game bao_gồm ui animation sounds level design kinh_nghiệm tích_hợp firebase analytics fcm ít_nhất game code unity cá_nhân công_ty gửi kèm sản_phẩm cv ứng_tuyển kinh_nghiệm hyper casualcasual gamepuzzle game sử_dụng unity phát_triển mobile game phát_hành google play app store định_hướng thị_trường bắc mỹ tham_gia dự_án game code unity phần_mềm lập_trình phối_hợp thành_viên team hoàn_thiện tối_ưu game animation ui ux game developer unity developer</t>
+          <t>game unity game unity game unity kinh_nghiệm lập_trình unity kinh_nghiệm code dự_án game thẻ tướng game nhập_vai game kiến_thức chuyên_sâu lập_trình c java am_hiểu khía_cạnh phát_triển game bao_gồm ui animation sounds level design kinh_nghiệm tích_hợp firebase analytics fcm ít_nhất game code unity cá_nhân công_ty gửi kèm sản_phẩm cv ứng_tuyển kinh_nghiệm hyper casualcasual gamepuzzle game sử_dụng unity phát_triển mobile game phát_hành google play app store định_hướng thị_trường bắc mỹ tham_gia dự_án game code unity phần_mềm lập_trình phối_hợp thành_viên team hoàn_thiện tối_ưu game animation ui ux</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>tốt_nghiệp tốt_nghiệp chuyên_ngành cntt sử_dụng unity bắt_buộc nắm kiến_thức ngôn_ngữ lập_trình c c nắm vững kiến_thức cấu_trúc dữ_liệu giải_thuật thuật_toán nền_tảng oop khả_năng tư_duy học_hỏi kiến_thức game điện_thoại_di_động đọc tiếng dự_án game lợi_thế đào_tạo trở_thành nhân_viên chính_thức phối_hợp producer game designer artist phác_họa ý_tưởng xây_dựng trò_chơi prototype hướng_dẫn cài_đặt tính_năng phát_triển sản_phẩm gamegame development fresher</t>
+          <t>game fresher game fresher game fresher tốt_nghiệp tốt_nghiệp chuyên_ngành cntt sử_dụng unity bắt_buộc nắm kiến_thức ngôn_ngữ lập_trình c c nắm vững kiến_thức cấu_trúc dữ_liệu giải_thuật thuật_toán nền_tảng oop khả_năng tư_duy học_hỏi kiến_thức game điện_thoại_di_động đọc tiếng dự_án game lợi_thế đào_tạo trở_thành nhân_viên chính_thức phối_hợp producer game designer artist phác_họa ý_tưởng xây_dựng trò_chơi prototype hướng_dẫn cài_đặt tính_năng phát_triển sản_phẩm game</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>game ít_nhất kinh_nghiệm phát_triển trò_chơi khả_năng làm_việc khía_cạnh phát_triển ứng_dụng bao_gồm ui animation khả_năng leader mentor tốt_nghiệp cử_nhân khoa_học máy_tính liên_quan kiến_thức vững_chắc công_cụ phát_triển c hiểu_biết oop design patterns tư_duy logic chủ_động công_việc tinh_thần trách_nhiệm phát_triển mobile game nền_tảng unity phối_hợp thành_viên team hoàn_thiện tối_ưu game animation ui ux effect hỗ_trợ hướng_dẫn thành_viên junior nâng chuyên_môn tham_gia maintain game phát_hành prototype ý_tưởng game mớigame developer unity developer</t>
+          <t>game unity game unity game unity game ít_nhất kinh_nghiệm phát_triển trò_chơi khả_năng làm_việc khía_cạnh phát_triển ứng_dụng bao_gồm ui animation khả_năng leader mentor tốt_nghiệp cử_nhân khoa_học máy_tính liên_quan kiến_thức vững_chắc công_cụ phát_triển c hiểu_biết oop design patterns tư_duy logic chủ_động công_việc tinh_thần trách_nhiệm phát_triển mobile game nền_tảng unity phối_hợp thành_viên team hoàn_thiện tối_ưu game animation ui ux effect hỗ_trợ hướng_dẫn thành_viên junior nâng chuyên_môn tham_gia maintain game phát_hành prototype ý_tưởng game</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>tốt_nghiệp đại_học chuyên_ngành kỹ_thuật phần_mềm toán khoa_học máy_tính kinh_nghiệm làm_việc java core java frameworks spring framework spring boot kinh_nghiệm team lead kiến_thức kinh_nghiệm làm_việc nosql relational database microservices architecture software design principles unit and functional testing git and cicd lợi_thế hiểu_biết software logging and monitoring uml diagrams classsequence diagram lợi_thế quen_thuộc domain driven design devops and agile principles lợi_thế tham_gia xây_dựng platforms khả_năng scaling performance trải nghiệm khách_hàng nền_tảng phát_triển giải_quyết bài_toán data realtime recommendation realtime ab testing thiết_kế domain driven design triển_khai clean code unit test deployment đảm_bảo_an_toàn hệ_thống hỗ_trợ tiếp_nhận phân_tích yêu_cầu stakeholders business analysist teambackend engineer</t>
+          <t>backend engineer backend engineer backend engineer tốt_nghiệp đại_học chuyên_ngành kỹ_thuật phần_mềm toán khoa_học máy_tính kinh_nghiệm làm_việc java core java frameworks spring framework spring boot kinh_nghiệm team lead kiến_thức kinh_nghiệm làm_việc nosql relational database microservices architecture software design principles unit and functional testing git and cicd lợi_thế hiểu_biết software logging and monitoring uml diagrams classsequence diagram lợi_thế quen_thuộc domain driven design devops and agile principles lợi_thế tham_gia xây_dựng platforms khả_năng scaling performance trải nghiệm khách_hàng nền_tảng phát_triển giải_quyết bài_toán data realtime recommendation realtime ab testing thiết_kế domain driven design triển_khai clean code unit test deployment đảm_bảo_an_toàn hệ_thống hỗ_trợ tiếp_nhận phân_tích yêu_cầu stakeholders business analysist team</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>kinh_nghiệm phân_tích thiết_kế hệ_thống kinh_nghiệm lập_trình php laravel framework tương_tự java lợi_thế kinh_nghiệm chuyên_sâu csscss javascript jquery ajax hiểu_biết chuyên_sâu apache server database mysql linux server network and security kiến_trúc phát_triển hệ_thống thương_mại điện_tử toàn_cầu web mobile multidomain multilanguages traffic dữ_liệu lập_trình mảng micro service cơ_hội đảm_trách tất_cả kỹ_năng fullstack developer xây_dựng yêu_cầu release vận_hành hệ_thống môi_trường tiêu_chuẩn nhật quy_trình chất_lượng dự_án product cơ_hội đề_xuất hiện_thực ý_tưởng hợp_lý hiệu_quả hoàn_thiện sản_phẩm php developers</t>
+          <t>php php php kinh_nghiệm phân_tích thiết_kế hệ_thống kinh_nghiệm lập_trình php laravel framework tương_tự java lợi_thế kinh_nghiệm chuyên_sâu csscss javascript jquery ajax hiểu_biết chuyên_sâu apache server database mysql linux server network and security kiến_trúc phát_triển hệ_thống thương_mại điện_tử toàn_cầu web mobile multidomain multilanguages traffic dữ_liệu lập_trình mảng micro service cơ_hội đảm_trách tất_cả kỹ_năng fullstack xây_dựng yêu_cầu release vận_hành hệ_thống môi_trường tiêu_chuẩn nhật quy_trình chất_lượng dự_án product cơ_hội đề_xuất hiện_thực ý_tưởng hợp_lý hiệu_quả hoàn_thiện sản_phẩm</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>63927ad02899b6abbbdf2c80</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>intern java intern java intern java ngành công_nghệ thông_tin_yêu đam_mê lập_trình sinh_viên trường cao_đẳng đại_học chuyên_ngành cntt chuyên_ngành liên_quan •_biết ngôn_ngữ lập_trình java hệ quản_trị csdl linux mysql ưu_tiên hiểu_biết thực_hiện project webservice rest hiểu_biết một_số framework spring mvc spring boot hiểu_biết chữ_ký tham_gia phát_triển hệ_thống pki cấp_phát chữ_ký giải_pháp ký remote signing</t>
         </is>
       </c>
     </row>

--- a/recommendApi/media/jobDbData1.xlsx
+++ b/recommendApi/media/jobDbData1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1000,6 +1000,21 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>6392c059aba1741daca2a3a4</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>python python python kinh_nghiệm phát_triển phần_mềm ngôn_ngữ python kinh_nghiệm làm_việc django framework kinh_nghiệm làm_việc database mongodb nosql kiến_thức xây_dựng sử_dụng restful apis công_cụ quản_lý source code git svn kinh_nghiệm triển_khai ứng_dụng xây_dựng python kỹ_năng kỹ_năng giải_quyết vấn_đề tiếp_cận logic phân_tích_hợp_lý khả_năng làm_việc tìm_hiểu nghiên_cứu công_nghệ ý_chí vươn khả_năng học nghiên_cứu công_nghệ hiểu_biết giải_thuật machine learning regression kmeans svm quyết_định decision tree neural network lợi_thế lập_trình google app script lợi_thế tham_gia trực_tiếp dự_án nghiên_cứu phát_triển sản_phẩm phần_mềm công_ty ngôn_ngữ python framework django sử_dụng db mongodb thiết_kế restful apis tham_gia kiến_trúc thiết_kế xây_dựng sản_phẩm môi_trường linh_động giàu sáng_tạo đội_ngũ kỹ_sư kinh_nghiệm thực_hiện công_việc tbp yêu_cầu</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
